--- a/data/allocation/allocation_data.xlsx
+++ b/data/allocation/allocation_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/allocation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC6A418-8F13-3B4B-8428-A8E1835D7DB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7B97CD-7E3D-BD4A-B9A6-50FE3A0D5334}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="126">
   <si>
     <t>V1.0</t>
   </si>
@@ -860,6 +860,10 @@
   </si>
   <si>
     <t>{"id":"0aCwS5YrnRm6S7RHlOXZ","dr":0,"ts":1589012705000,"creator":"smq","creationTime":1589012705000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","stockOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgInCode":"1210","stockOrgInName":"西安喜马拉雅网络科技有限公司","billCode":"TRN2020050900013","billDate":1588953600000,"billType":"AllocationIn","billTranTypeId":"AllocationIn","billTranTypeCode":"AllocationIn","billTranTypeName":"调拨入库","storageId":"1001ZZ100000000DPAP6","storageCode":"test030202","storageName":"test030202","ifSlotManage":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"storekeeperId":null,"storekeeperCode":null,"storekeeperName":null,"inDate":null,"planArriveDate":null,"currencyId":null,"currencyCode":null,"currencyName":null,"totalShouldInNum":5.00000000,"totalFactInNum":3.00000000,"billStatusId":"099aj5df-4y42-4700-d8d6-3714fdb43e68","billStatusCode":"01","billStatusName":"自由","stockBillBelong":"0DKeeV9TPwv3UZiad8EH","customerId":null,"customerCode":null,"customerName":null,"bizPersonId":null,"bizPersonCode":null,"bizPersonName":null,"deparmentId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","deparmentCode":"01010102","deparmentName":"城市经理","logisticsId":null,"logisticsCode":null,"logisticsName":null,"realLogisticsCompanyId":null,"realLogisticsCompanyCode":null,"realLogisticsCompanyName":null,"logisticsBillCode":null,"siger":null,"signTime":null,"cancelReason":null,"remark":"自动化测试参照调拨出库单新增调拨入库单","transferInBillItems":[{"id":"0Z8SQSmZtDN7o4b5u7I8","dr":0,"ts":1589012723000,"creator":"smq","creationTime":1589012723000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"transferInBillId":null,"rowNum":10,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","shouldInNum":5.00000000,"factInNum":3.00000000,"unitPrice":null,"amountMoney":0E-8,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockInPersonId":null,"stockInPersonCode":null,"stockInPersonName":null,"stockInDate":null,"firstBillCode":"DBO20200508000034","firstBillBcode":"0Tr6HVsgvmzwBQYy2d6i","firstBillType":null,"srcBillCode":"TDN2020050900003","srcBillBcode":"0RVbhbtQZhT5PZkp19zW","srcBillType":"AllocationOut","remark":null,"goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"ext01":"3.00000000","ext02":null,"ext03":"AllocationOut","ext04":"Allocation","ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":"0TszFCIVqcbJkmpWHQhq","ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null}],"transferInBillItemBoms":[{"id":"0P13ZigHlYHvTIuUCTj1","dr":0,"ts":1589012723000,"creator":"smq","creationTime":1589012723000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","shouldInNum":5.00000000,"factInNum":3.00000000,"unitPrice":null,"amountMoney":0E-8,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockInPersonId":null,"stockInPersonCode":null,"stockInPersonName":null,"stockInDate":null,"firstBillCode":"0DKeeV9TPwv3UZiad8EH","firstBillBcode":"0Tr6HVsgvmzwBQYy2d6i","firstBillType":null,"srcBillCode":"TDN2020050900003","srcBillBcode":"0RVbhbtQZhT5PZkp19zW","srcBillType":null,"remark":null,"goodsVersion":"1","goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"itemId":"0Z8SQSmZtDN7o4b5u7I8","billId":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentGoodsdisplayName":null,"parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":"0CrhvlIZ5uIVEXmYN9Hq","srcBillBomCode":"0K1xchlRSFmYGxaooi2J","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":"0TszFCIVqcbJkmpWHQhq","ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null}],"srcSystem":null,"srcSystemId":null,"srcSystemCode":null,"srcSystemName":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"sycnOutStatus":null,"sycnNCStatus":null}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"create-transfer-in1","stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","billCode":"TDN2020050900003","billDate":1588953600000,"billType":"AllocationOut","billTranTypeId":"AllocationOut","billTranTypeCode":"AllocationOut","billTranTypeName":"调拨入库","storageId":"1001ZZ100000000DPAP4","storageCode":"test030201","storageName":"测试仓库030201","ifSlotManage":null,"storekeeperId":null,"storekeeperCode":null,"storekeeperName":null,"planSendDate":"","planArriveDate":"","currencyId":null,"currencyCode":null,"currencyName":null,"totalShouldOutNum":"5.00","totalFactOutNum":"3.00","billStatusId":"099aj5df-4y42-4700-d8d6-3714fdb43e68","billStatusName":"自由","billStatusCode":"01","stockBillBelong":"0DKeeV9TPwv3UZiad8EH","customerId":null,"customerCode":null,"customerName":null,"bizPersonId":"0mWG6nOSCxjsi1zoKEYs","bizPersonCode":"007","bizPersonName":"师孟奇","deparmentId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","deparmentCode":"01010102","deparmentName":"城市经理","logisticsId":null,"logisticsCode":null,"logisticsName":null,"siger":null,"signTime":"","cancelReason":null,"remark":"自动化测试编辑调拨入库单，修改实入数量","realLogisticsCompanyId":null,"realLogisticsCompanyCode":null,"realLogisticsCompanyName":null,"logisticsBillCode":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","dr":0,"ts":1589002318000,"creator":"smq","creationTime":1589002318000,"modifier":null,"modifiedTime":null,"persistStatus":"upd","promptMessage":null,"stockOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgInCode":"1210","stockOrgInName":"西安喜马拉雅网络科技有限公司","inIfSlotManage":null,"transferBillOutItems":[{"transferOutBill":null,"rowNum":10,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","totalShouldOutNum":null,"factOutNum":"3.000000","unitPrice":"","amountMoney":"0.00","batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"stockOutDate":"","receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"firstBillCode":"DBO20200508000034","firstBillBcode":"0Tr6HVsgvmzwBQYy2d6i","firstBillType":"Allocation","srcBillCode":"DBO20200508000034","srcBillBcode":"0Tr6HVsgvmzwBQYy2d6i","srcBillType":"Allocation","remark":null,"goodsVersion":"1","batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelection":null,"goodsSelectionDescription":null,"id":"0RVbhbtQZhT5PZkp19zW","dr":0,"ts":1589002336000,"creator":"smq","creationTime":1589002336000,"modifier":null,"modifiedTime":null,"persistStatus":"upd","promptMessage":null,"transferOutBillId":"0TszFCIVqcbJkmpWHQhq","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","enableBatchNumberManage":null,"productId":null,"productCode":null,"productLineId":null,"isOptional":null,"shouldOutNum":5,"isMotherPiece":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"ext01":"5.00000000","ext02":null,"ext03":"Allocation","ext04":"Allocation","ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"outStorageId":null,"outStorageCode":null,"outStorageName":null,"outIfSlotManage":null,"inStorageId":null,"inStorageCode":null,"inStorageName":null,"inIfSlotManage":null}],"transferOutBillItemBoms":[{"transferOutBill":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","totalShouldOutNum":null,"factOutNum":3,"unitPrice":"","amountMoney":"0.00","batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"stockOutDate":"","receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"firstBillCode":"0DKeeV9TPwv3UZiad8EH","firstBillBcode":"0Tr6HVsgvmzwBQYy2d6i","firstBillType":"Allocation","srcBillCode":"DBO20200508000034","srcBillBcode":"0Tr6HVsgvmzwBQYy2d6i","srcBillType":"Allocation","remark":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentRowNum":"10","childGoodsQty":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"id":"0K1xchlRSFmYGxaooi2J","dr":0,"ts":1589002336000,"creator":"smq","creationTime":1589002336000,"modifier":null,"modifiedTime":null,"persistStatus":"upd","promptMessage":null,"goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","enableBatchNumberManage":null,"productId":null,"productLineId":null,"shouldOutNum":5,"itemId":"0RVbhbtQZhT5PZkp19zW","billId":null,"parentGoodsdisplayName":null,"firstBillBomCode":"0CrhvlIZ5uIVEXmYN9Hq","srcBillBomCode":"0CrhvlIZ5uIVEXmYN9Hq","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null}],"srcSystem":null,"srcSystemId":null,"srcSystemCode":null,"srcSystemName":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"sycnOutStatus":null,"sycnNCStatus":null}</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1746,9 +1750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IY245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -4002,7 +4006,9 @@
       <c r="L10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="50"/>
+      <c r="M10" s="50" t="s">
+        <v>49</v>
+      </c>
       <c r="N10" s="37"/>
       <c r="O10" s="37"/>
       <c r="P10" s="37" t="s">
@@ -6279,7 +6285,7 @@
         <v>32</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I18" s="28" t="s">
         <v>26</v>

--- a/data/allocation/allocation_data.xlsx
+++ b/data/allocation/allocation_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/allocation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7B97CD-7E3D-BD4A-B9A6-50FE3A0D5334}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EF3159-0B81-EA4B-B45F-D1326C715CFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="130">
   <si>
     <t>V1.0</t>
   </si>
@@ -506,10 +506,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>{"billId":"id"}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>json</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -538,14 +534,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":null,"pkOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgCode":null,"pkOrgName":null,"pkOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgInCode":null,"pkOrgInName":null,"code":null,"billDate":1585238400000,"billType":"Allocation","billTranTypeId":"Allocation","billTranTypeCode":null,"billTranTypeName":null,"outBizPersonId":"0mWG6nOSCxjsi1zoKEYs","outBizPersonCode":null,"outBizPersonName":null,"inBizPersonId":"0wsjdHVUBFlca3pyH155","inBizPersonCode":null,"inBizPersonName":null,"outDeptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","outDeptCode":null,"outDeptName":null,"inDeptId":"02f265b0-aca6-4364-bd1b-50de07ef9482","inDeptCode":null,"inDeptName":null,"planSendDate":"","planArriveDate":"","currencyId":"CURRENCY-01","currencyCode":null,"currencyName":"人民币","totalFactInNum":null,"totalFactOutNum":null,"billStatusId":null,"billStatusCode":null,"billStatusName":null,"transferStatusId":null,"transferStatusCode":"1","transferStatusName":"待处理","state":0,"stockBillBelong":null,"customerId":null,"customerName":null,"customerCode":null,"isClose":"0","closer":null,"closeDate":null,"closeReason":null,"approver":null,"approveTime":null,"approveOpinion":null,"remark":"自动化测试新增调拨单","isDistribution":null,"isReturned":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":null,"outStorageName":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":null,"inStorageName":null,"receiverAddress":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"persistStatus":"new","transferBillItems":[{"id":null,"rowNum":10,"dr":null,"TransferBillId":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":null,"goodsAssistUnitName":null,"goodsConversionRate":null,"enableBatchNumberManage":"0","enableBatchNoManage":"0","enableInvStatusManage":"0","isOptional":null,"productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","unitId":"UNIT-12","unitCode":null,"unitName":"个","transferNum":"5","onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":"0.00","remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":"0","sourceId":null,"sourceLineNum":null,"sourceNum":null,"goodsVersion":"1","batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelection":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":null,"outStorageName":null,"outIfSlotManage":"0","ifSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":null,"inStorageName":null,"inIfSlotManage":"0","outPositionId":null,"outPositionCode":null,"outPositionName":null,"persistStatus":"new"}],"transferBillItemBoms":[{"id":null,"rowNum":10,"TransferBillId":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":null,"goodsAssistUnitName":null,"goodsConversionRate":null,"enableBatchNumberManage":"0","enableBatchNoManage":"0","enableInvStatusManage":"0","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","unitId":"UNIT-12","unitCode":null,"unitName":"个","transferNum":5,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":"0","sourceId":null,"sourceLineNum":null,"sourceNum":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":null,"parentGoodsName":null,"parentRowNum":10,"childGoodsQty":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":null,"outStorageName":null,"outIfSlotManage":"0","inStorageId":"1001ZZ100000000DPAP6","inStorageCode":null,"inStorageName":null,"inIfSlotManage":"0","outPositionId":null,"outPositionCode":null,"outPositionName":null,"dr":null,"isOptional":null,"ifSlotManage":null,"persistStatus":"new"}]}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":"0cVwUbuRXnzAhyFKRyaq","dr":0,"ts":1585301477000,"creator":"smq","creationTime":1585301477000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"pkOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgCode":"1210","pkOrgName":"西安喜马拉雅网络科技有限公司","pkOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgInCode":"1210","pkOrgInName":"西安喜马拉雅网络科技有限公司","code":"DBO20200327000005","billDate":1585238400000,"billType":"Allocation","billTranTypeId":"Allocation","billTranTypeCode":"Allocation","billTranTypeName":"调拨单","outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outBizPersonId":"0mWG6nOSCxjsi1zoKEYs","outBizPersonCode":"007","outBizPersonName":"师孟奇","inBizPersonId":"0wsjdHVUBFlca3pyH155","inBizPersonCode":"2539","inBizPersonName":"唐林","outDeptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","outDeptCode":"01010102","outDeptName":"城市经理","inDeptId":"02f265b0-aca6-4364-bd1b-50de07ef9482","inDeptCode":"02","inDeptName":"中台&amp;业务支撑","planSendDate":null,"planArriveDate":null,"currencyId":"CURRENCY-01","currencyCode":"RMB","currencyName":"人民币","totalFactOutNum":null,"totalFactInNum":null,"billStatusId":null,"billStatusCode":null,"billStatusName":null,"transferStatusId":"0s21f51f-4f42-4100-dkd0-3254fbq33e6k","transferStatusCode":"1","transferStatusName":"待处理","stockBillBelong":null,"customerId":null,"customerName":null,"customerCode":null,"isClose":0,"closer":null,"closeDate":null,"closeReason":null,"remark":"自动化测试新增调拨单","transferBillItems":[{"id":"0nDo9IaykpX0aSOxITRr","dr":0,"ts":1585301487000,"creator":"smq","creationTime":1585301487000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":10,"transferBillId":"0cVwUbuRXnzAhyFKRyaq","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":5.00000000,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0E-8,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"transferBillItemBoms":[{"id":"06NAx8X65U6lDo4qq2oJ","dr":0,"ts":1585301487000,"creator":"smq","creationTime":1585301487000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":5.00000000,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0E-8,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"itemId":"0nDo9IaykpX0aSOxITRr","billId":"0cVwUbuRXnzAhyFKRyaq","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentGoodsdisplayName":null,"parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":null,"srcBillBomCode":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"isDistribution":null,"isReturned":null}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>查询调拨订单详情</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -598,10 +586,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>{"success":"success","message":"&amp;#25910;&amp;#22238;&amp;#25104;&amp;#21151;","detailMsg":{"data":[{"id":"0M9qecoEHCUN6njoxel5","dr":0,"ts":1588846325669,"creator":"smq","creationTime":1588830712000,"modifier":"smq","modifiedTime":1588846325669,"persistStatus":"upd","promptMessage":null,"state":0,"approver":"smq","approveTime":1588846325669,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"pkOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgCode":"1210","pkOrgName":"西安喜马拉雅网络科技有限公司","pkOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgInCode":"1210","pkOrgInName":"西安喜马拉雅网络科技有限公司","code":"DBO20200507000012","billDate":1585238400000,"billType":"Allocation","billTranTypeId":"Allocation","billTranTypeCode":"Allocation","billTranTypeName":"调拨单","outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outBizPersonId":"0mWG6nOSCxjsi1zoKEYs","outBizPersonCode":"007","outBizPersonName":"师孟奇","inBizPersonId":"0wsjdHVUBFlca3pyH155","inBizPersonCode":"2539","inBizPersonName":"唐林","outDeptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","outDeptCode":"01010102","outDeptName":"城市经理","inDeptId":"02f265b0-aca6-4364-bd1b-50de07ef9482","inDeptCode":"02","inDeptName":"中台&amp;业务支撑","planSendDate":null,"planArriveDate":null,"currencyId":"CURRENCY-01","currencyCode":"RMB","currencyName":"人民币","totalFactOutNum":null,"totalFactInNum":null,"billStatusId":null,"billStatusCode":null,"billStatusName":null,"transferStatusId":"0s21f51c-4d42-4100-dkd0-3254fbq33e6k","transferStatusCode":"2","transferStatusName":"已提交审批","stockBillBelong":null,"customerId":null,"customerName":null,"customerCode":null,"isClose":0,"closer":null,"closeDate":null,"closeReason":null,"remark":"自动化测试新增调拨单","transferBillItems":[{"id":"0uzkrQkaTsKpypQhdpLS","dr":0,"ts":1588830731000,"creator":"smq","creationTime":1588830731000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":10,"transferBillId":"0M9qecoEHCUN6njoxel5","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":5.00000000,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0E-8,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"transferBillItemBoms":[{"id":"0jDmeyt1z4tjivsJztsE","dr":0,"ts":1588830731000,"creator":"smq","creationTime":1588830731000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":5.00000000,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0E-8,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"itemId":"0uzkrQkaTsKpypQhdpLS","billId":"0M9qecoEHCUN6njoxel5","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentGoodsdisplayName":null,"parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":null,"srcBillBomCode":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"isDistribution":null,"isReturned":null}]}}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>删除调拨订单</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -646,18 +630,10 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":null,"stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","billCode":null,"billDate":1588953600000,"billType":"AllocationOut","billTranTypeId":"AllocationOut","billTranTypeCode":null,"billTranTypeName":null,"storageId":"1001ZZ100000000DPAP4","storageCode":"test030201","storageName":"测试仓库030201","ifSlotManage":null,"storekeeperId":null,"storekeeperCode":null,"storekeeperName":null,"planSendDate":"","planArriveDate":"","currencyId":null,"currencyCode":null,"currencyName":null,"totalShouldOutNum":"5.00","totalFactOutNum":"5.00","billStatusId":null,"billStatusName":"自由","billStatusCode":"01","stockBillBelong":"0DKeeV9TPwv3UZiad8EH","customerId":null,"customerCode":null,"customerName":null,"bizPersonId":"0mWG6nOSCxjsi1zoKEYs","bizPersonCode":"007","bizPersonName":"师孟奇","deparmentId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","deparmentCode":"01010102","deparmentName":"城市经理","logisticsId":null,"logisticsCode":null,"logisticsName":null,"siger":null,"signTime":"","cancelReason":null,"remark":"自动化测试新增调拨出库单","realLogisticsCompanyId":null,"realLogisticsCompanyCode":null,"realLogisticsCompanyName":null,"logisticsBillCode":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","dr":0,"ts":null,"creator":null,"creationTime":null,"modifier":null,"modifiedTime":null,"persistStatus":"upd","promptMessage":null,"stockOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgInCode":"1210","stockOrgInName":"西安喜马拉雅网络科技有限公司","inIfSlotManage":null,"transferBillOutItems":[{"transferOutBill":null,"rowNum":10,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":null,"goodsAssistUnitName":null,"goodsConversionRate":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","totalShouldOutNum":null,"factOutNum":"5.000000","unitPrice":"","amountMoney":"0.00","batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"stockOutDate":"","receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"firstBillCode":"DBO20200508000034","firstBillBcode":"0Tr6HVsgvmzwBQYy2d6i","firstBillType":"Allocation","srcBillCode":"DBO20200508000034","srcBillBcode":"0Tr6HVsgvmzwBQYy2d6i","srcBillType":"Allocation","remark":null,"goodsVersion":"1","batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelection":null,"goodsSelectionDescription":null,"id":null,"dr":0,"ts":null,"creator":null,"creationTime":null,"modifier":null,"modifiedTime":null,"persistStatus":"new","promptMessage":null,"transferOutBillId":null,"goodsDisplayName":null,"enableBatchNumberManage":null,"productId":null,"productCode":null,"productLineId":null,"isOptional":null,"shouldOutNum":5,"isMotherPiece":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"ext01":null,"ext02":null,"ext03":"Allocation","ext04":"Allocation","ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"outStorageId":null,"outStorageCode":null,"outStorageName":null,"outIfSlotManage":null,"inStorageId":null,"inStorageCode":null,"inStorageName":null,"inIfSlotManage":null}],"transferOutBillItemBoms":[{"transferOutBill":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":null,"goodsAssistUnitName":null,"goodsConversionRate":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","totalShouldOutNum":null,"factOutNum":"5.000000","unitPrice":"","amountMoney":"0.00","batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"stockOutDate":"","receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"firstBillCode":"0DKeeV9TPwv3UZiad8EH","firstBillBcode":"0Tr6HVsgvmzwBQYy2d6i","firstBillType":"Allocation","srcBillCode":"DBO20200508000034","srcBillBcode":"0Tr6HVsgvmzwBQYy2d6i","srcBillType":"Allocation","remark":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentRowNum":"10","childGoodsQty":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"id":null,"dr":0,"ts":null,"creator":null,"creationTime":null,"modifier":null,"modifiedTime":null,"persistStatus":"new","promptMessage":null,"goodsDisplayName":null,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"shouldOutNum":5,"itemId":null,"billId":null,"parentGoodsdisplayName":null,"firstBillBomCode":"0CrhvlIZ5uIVEXmYN9Hq","srcBillBomCode":"0CrhvlIZ5uIVEXmYN9Hq","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null}],"srcSystem":null,"srcSystemId":null,"srcSystemCode":null,"srcSystemName":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"sycnOutStatus":null,"sycnNCStatus":null}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>{"id":"allocation-create1","search_AUTH_APPCODE":"allocation"}</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":"0TszFCIVqcbJkmpWHQhq","dr":0,"ts":1589002318000,"creator":"smq","creationTime":1589002318000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":"","stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","stockOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgInCode":"1210","stockOrgInName":"西安喜马拉雅网络科技有限公司","billCode":"TDN2020050900003","billDate":1588953600000,"billType":"AllocationOut","billTranTypeId":"AllocationOut","billTranTypeCode":"AllocationOut","billTranTypeName":"调拨出库","storageId":"1001ZZ100000000DPAP4","storageCode":"test030201","storageName":"测试仓库030201","ifSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"storekeeperId":null,"storekeeperCode":null,"storekeeperName":null,"planSendDate":null,"planArriveDate":null,"currencyId":null,"currencyCode":null,"currencyName":null,"totalShouldOutNum":5.00000000,"totalFactOutNum":5.00000000,"billStatusId":"099aj5df-4y42-4700-d8d6-3714fdb43e68","billStatusCode":"01","billStatusName":"自由","stockBillBelong":"0DKeeV9TPwv3UZiad8EH","customerId":null,"customerCode":null,"customerName":null,"bizPersonId":"0mWG6nOSCxjsi1zoKEYs","bizPersonCode":"007","bizPersonName":"师孟奇","deparmentId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","deparmentCode":"01010102","deparmentName":"城市经理","logisticsId":null,"logisticsCode":null,"logisticsName":null,"realLogisticsCompanyId":null,"realLogisticsCompanyCode":null,"realLogisticsCompanyName":null,"logisticsBillCode":null,"siger":null,"signTime":null,"cancelReason":null,"remark":"自动化测试新增调拨出库单","transferBillOutItems":[{"id":"0RVbhbtQZhT5PZkp19zW","dr":0,"ts":1589002336000,"creator":"smq","creationTime":1589002336000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"transferOutBillId":"0TszFCIVqcbJkmpWHQhq","rowNum":10,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productCode":null,"productLineId":null,"isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","shouldOutNum":5.00000000,"factOutNum":5.00000000,"unitPrice":null,"amountMoney":0E-8,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"stockOutDate":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"firstBillCode":"DBO20200508000034","firstBillBcode":"0Tr6HVsgvmzwBQYy2d6i","firstBillType":"Allocation","srcBillCode":"DBO20200508000034","srcBillBcode":"0Tr6HVsgvmzwBQYy2d6i","srcBillType":"Allocation","remark":null,"goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"ext01":null,"ext02":null,"ext03":"Allocation","ext04":"Allocation","ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"outStorageId":null,"outStorageCode":null,"outStorageName":null,"outIfSlotManage":null,"inStorageId":null,"inStorageCode":null,"inStorageName":null,"inIfSlotManage":null}],"transferOutBillItemBoms":[{"id":"0K1xchlRSFmYGxaooi2J","dr":0,"ts":1589002336000,"creator":"smq","creationTime":1589002336000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","shouldOutNum":5.00000000,"factOutNum":5.00000000,"unitPrice":null,"amountMoney":0E-8,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"stockOutDate":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"firstBillCode":"0DKeeV9TPwv3UZiad8EH","firstBillBcode":"0Tr6HVsgvmzwBQYy2d6i","firstBillType":"Allocation","srcBillCode":"DBO20200508000034","srcBillBcode":"0Tr6HVsgvmzwBQYy2d6i","srcBillType":"Allocation","remark":null,"goodsVersion":"1","goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"itemId":"0RVbhbtQZhT5PZkp19zW","billId":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentGoodsdisplayName":null,"parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":"0CrhvlIZ5uIVEXmYN9Hq","srcBillBomCode":"0CrhvlIZ5uIVEXmYN9Hq","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null}],"srcSystem":null,"srcSystemId":null,"srcSystemCode":null,"srcSystemName":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"sycnOutStatus":null,"sycnNCStatus":null}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>{"billId":"allocation-create1"}</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -725,10 +701,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>/occ-stock/stock/transfer-out-bills/batch-cancel-sign</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>{"ids":"create-transfer-out1","search_AUTH_APPCODE":"transferOutBill"}</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -822,18 +794,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":"0ONTxQHCOjIPkfqLK85L","dr":0,"ts":1589010470000,"creator":"smq","creationTime":1589010470000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"pkOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgCode":"1210","pkOrgName":"西安喜马拉雅网络科技有限公司","pkOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgInCode":"1210","pkOrgInName":"西安喜马拉雅网络科技有限公司","code":"DBO20200509000008","billDate":1585238400000,"billType":"Allocation","billTranTypeId":"Allocation","billTranTypeCode":"Allocation","billTranTypeName":"调拨单","outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outBizPersonId":"0mWG6nOSCxjsi1zoKEYs","outBizPersonCode":"007","outBizPersonName":"师孟奇","inBizPersonId":"0wsjdHVUBFlca3pyH155","inBizPersonCode":"2539","inBizPersonName":"唐林","outDeptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","outDeptCode":"01010102","outDeptName":"城市经理","inDeptId":"02f265b0-aca6-4364-bd1b-50de07ef9482","inDeptCode":"02","inDeptName":"中台&amp;业务支撑","planSendDate":null,"planArriveDate":null,"currencyId":"CURRENCY-01","currencyCode":"RMB","currencyName":"人民币","totalFactOutNum":null,"totalFactInNum":null,"billStatusId":null,"billStatusCode":null,"billStatusName":null,"transferStatusId":"0s21f51f-4f42-4100-dkd0-3254fbq33e6k","transferStatusCode":"1","transferStatusName":"待处理","stockBillBelong":null,"customerId":null,"customerName":null,"customerCode":null,"isClose":0,"closer":null,"closeDate":null,"closeReason":null,"remark":"自动化测试新增调拨单","transferBillItems":[{"id":"0VWkTIGW2Wfqr8qtXzDZ","dr":0,"ts":1589010495000,"creator":"smq","creationTime":1589010495000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":10,"transferBillId":"0ONTxQHCOjIPkfqLK85L","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":5.00000000,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0E-8,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"transferBillItemBoms":[{"id":"0IyRPerHKwwmZTU781mA","dr":0,"ts":1589010495000,"creator":"smq","creationTime":1589010495000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":5.00000000,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0E-8,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"itemId":"0VWkTIGW2Wfqr8qtXzDZ","billId":"0ONTxQHCOjIPkfqLK85L","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentGoodsdisplayName":null,"parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":null,"srcBillBomCode":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"isDistribution":null,"isReturned":null}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":"allocation-create1","pkOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgCode":"1210","pkOrgName":"西安喜马拉雅网络科技有限公司","pkOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgInCode":"1210","pkOrgInName":"西安喜马拉雅网络科技有限公司","code":"DBO20201111testedit","billDate":1585238400000,"billType":"Allocation","billTranTypeId":"Allocation","billTranTypeCode":"Allocation","billTranTypeName":"调拨单","outBizPersonId":"0mWG6nOSCxjsi1zoKEYs","outBizPersonCode":"007","outBizPersonName":"师孟奇","inBizPersonId":"0wsjdHVUBFlca3pyH155","inBizPersonCode":"2539","inBizPersonName":"唐林","outDeptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","outDeptCode":"01010102","outDeptName":"城市经理","inDeptId":"02f265b0-aca6-4364-bd1b-50de07ef9482","inDeptCode":"02","inDeptName":"中台&amp;业务支撑","planSendDate":"","planArriveDate":"","currencyId":"CURRENCY-01","currencyCode":"RMB","currencyName":"人民币","totalFactInNum":null,"totalFactOutNum":null,"billStatusId":null,"billStatusCode":null,"billStatusName":null,"transferStatusId":"0s21f51f-4f42-4100-dkd0-3254fbq33e6k","transferStatusCode":"1","transferStatusName":"待处理","state":0,"stockBillBelong":null,"customerId":null,"customerName":null,"customerCode":null,"isClose":0,"closer":null,"closeDate":null,"closeReason":null,"approver":null,"approveTime":null,"approveOpinion":null,"remark":"自动化测试新增调拨单编辑","isDistribution":null,"isReturned":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","receiverAddress":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"dr":0,"ts":1585301477000,"creator":"smq","creationTime":1585301477000,"modifier":null,"modifiedTime":null,"persistStatus":"upd","promptMessage":null,"sycnNCStatus":null,"sycnOutStatus":null,"outIfSlotManage":null,"inIfSlotManage":null,"transferBillItems":[{"id":"0nDo9IaykpX0aSOxITRr","rowNum":10,"dr":0,"TransferBillId":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1,"enableBatchNumberManage":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"isOptional":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":"6","onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceNum":null,"goodsVersion":"1","batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelection":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"ifSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null,"ts":1585301487000,"creator":"smq","creationTime":1585301487000,"modifier":null,"modifiedTime":null,"persistStatus":"upd","promptMessage":null,"transferBillId":"0cVwUbuRXnzAhyFKRyaq","sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"isMotherPiece":null}],"transferBillItemBoms":[{"id":"06NAx8X65U6lDo4qq2oJ","rowNum":"10","TransferBillId":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1,"enableBatchNumberManage":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":6,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceNum":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentRowNum":"10","childGoodsQty":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null,"dr":0,"ts":1585301487000,"creator":"smq","creationTime":1585301487000,"modifier":null,"modifiedTime":null,"persistStatus":"upd","promptMessage":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"itemId":"0nDo9IaykpX0aSOxITRr","billId":"0cVwUbuRXnzAhyFKRyaq","parentGoodsdisplayName":null,"firstBillBomCode":null,"srcBillBomCode":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":"0cVwUbuRXnzAhyFKRyaq","dr":0,"ts":1585302396892,"creator":"smq","creationTime":1585301477000,"modifier":"smq","modifiedTime":1585302396892,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"pkOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgCode":"1210","pkOrgName":"西安喜马拉雅网络科技有限公司","pkOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgInCode":"1210","pkOrgInName":"西安喜马拉雅网络科技有限公司","code":"DBO20200327000005","billDate":1585238400000,"billType":"Allocation","billTranTypeId":"Allocation","billTranTypeCode":"Allocation","billTranTypeName":"调拨单","outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outBizPersonId":"0mWG6nOSCxjsi1zoKEYs","outBizPersonCode":"007","outBizPersonName":"师孟奇","inBizPersonId":"0wsjdHVUBFlca3pyH155","inBizPersonCode":"2539","inBizPersonName":"唐林","outDeptId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","outDeptCode":"01010102","outDeptName":"城市经理","inDeptId":"02f265b0-aca6-4364-bd1b-50de07ef9482","inDeptCode":"02","inDeptName":"中台&amp;业务支撑","planSendDate":null,"planArriveDate":null,"currencyId":"CURRENCY-01","currencyCode":"RMB","currencyName":"人民币","totalFactOutNum":null,"totalFactInNum":null,"billStatusId":null,"billStatusCode":null,"billStatusName":null,"transferStatusId":"0s21f51f-4f42-4100-dkd0-3254fbq33e6k","transferStatusCode":"1","transferStatusName":"待处理","stockBillBelong":null,"customerId":null,"customerName":null,"customerCode":null,"isClose":0,"closer":null,"closeDate":null,"closeReason":null,"remark":"自动化测试新增调拨单编辑","transferBillItems":[{"id":"0nDo9IaykpX0aSOxITRr","dr":0,"ts":1585302396893,"creator":"smq","creationTime":1585301487000,"modifier":"smq","modifiedTime":1585302396893,"persistStatus":"nrm","promptMessage":null,"rowNum":10,"transferBillId":"0cVwUbuRXnzAhyFKRyaq","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":6,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"transferBillItemBoms":[{"id":"06NAx8X65U6lDo4qq2oJ","dr":0,"ts":1585302396893,"creator":"smq","creationTime":1585301487000,"modifier":"smq","modifiedTime":1585302396893,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":6,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"itemId":"0nDo9IaykpX0aSOxITRr","billId":"0cVwUbuRXnzAhyFKRyaq","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentGoodsdisplayName":null,"parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":null,"srcBillBomCode":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inSto arageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"isDistribution":null,"isReturned":null}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>{"id":"0aCwS5YrnRm6S7RHlOXZ","dr":0,"ts":1589012705000,"creator":"smq","creationTime":1589012705000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":"","stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","stockOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgInCode":"1210","stockOrgInName":"西安喜马拉雅网络科技有限公司","billCode":"TRN2020050900013","billDate":1588953600000,"billType":"AllocationIn","billTranTypeId":"AllocationIn","billTranTypeCode":"AllocationIn","billTranTypeName":"调拨入库","storageId":"1001ZZ100000000DPAP6","storageCode":"test030202","storageName":"test030202","ifSlotManage":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"storekeeperId":null,"storekeeperCode":null,"storekeeperName":null,"inDate":null,"planArriveDate":null,"currencyId":null,"currencyCode":null,"currencyName":null,"totalShouldInNum":5.00000000,"totalFactInNum":3.00000000,"billStatusId":"099aj5df-4y42-4700-d8d6-3714fdb43e68","billStatusCode":"01","billStatusName":"自由","stockBillBelong":"0DKeeV9TPwv3UZiad8EH","customerId":null,"customerCode":null,"customerName":null,"bizPersonId":null,"bizPersonCode":null,"bizPersonName":null,"deparmentId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","deparmentCode":"01010102","deparmentName":"城市经理","logisticsId":null,"logisticsCode":null,"logisticsName":null,"realLogisticsCompanyId":null,"realLogisticsCompanyCode":null,"realLogisticsCompanyName":null,"logisticsBillCode":null,"siger":null,"signTime":null,"cancelReason":null,"remark":"自动化测试参照调拨出库单新增调拨入库单","transferInBillItems":[{"id":"0Z8SQSmZtDN7o4b5u7I8","dr":0,"ts":1589012723000,"creator":"smq","creationTime":1589012723000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"transferInBillId":null,"rowNum":10,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","shouldInNum":5.00000000,"factInNum":3.00000000,"unitPrice":null,"amountMoney":0E-8,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockInPersonId":null,"stockInPersonCode":null,"stockInPersonName":null,"stockInDate":null,"firstBillCode":"DBO20200508000034","firstBillBcode":"0Tr6HVsgvmzwBQYy2d6i","firstBillType":null,"srcBillCode":"TDN2020050900003","srcBillBcode":"0RVbhbtQZhT5PZkp19zW","srcBillType":"AllocationOut","remark":null,"goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"ext01":null,"ext02":null,"ext03":"AllocationOut","ext04":"Allocation","ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":"0TszFCIVqcbJkmpWHQhq","ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null}],"transferInBillItemBoms":[{"id":"0P13ZigHlYHvTIuUCTj1","dr":0,"ts":1589012723000,"creator":"smq","creationTime":1589012723000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","shouldInNum":5.00000000,"factInNum":3.00000000,"unitPrice":null,"amountMoney":0E-8,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockInPersonId":null,"stockInPersonCode":null,"stockInPersonName":null,"stockInDate":null,"firstBillCode":"0DKeeV9TPwv3UZiad8EH","firstBillBcode":"0Tr6HVsgvmzwBQYy2d6i","firstBillType":null,"srcBillCode":"TDN2020050900003","srcBillBcode":"0RVbhbtQZhT5PZkp19zW","srcBillType":null,"remark":null,"goodsVersion":"1","goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"itemId":"0Z8SQSmZtDN7o4b5u7I8","billId":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentGoodsdisplayName":null,"parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":"0CrhvlIZ5uIVEXmYN9Hq","srcBillBomCode":"0K1xchlRSFmYGxaooi2J","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":"0TszFCIVqcbJkmpWHQhq","ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null}],"srcSystem":null,"srcSystemId":null,"srcSystemCode":null,"srcSystemName":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"sycnOutStatus":null,"sycnNCStatus":null}</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -864,6 +824,68 @@
   </si>
   <si>
     <t>{"id":"create-transfer-in1","stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","billCode":"TDN2020050900003","billDate":1588953600000,"billType":"AllocationOut","billTranTypeId":"AllocationOut","billTranTypeCode":"AllocationOut","billTranTypeName":"调拨入库","storageId":"1001ZZ100000000DPAP4","storageCode":"test030201","storageName":"测试仓库030201","ifSlotManage":null,"storekeeperId":null,"storekeeperCode":null,"storekeeperName":null,"planSendDate":"","planArriveDate":"","currencyId":null,"currencyCode":null,"currencyName":null,"totalShouldOutNum":"5.00","totalFactOutNum":"3.00","billStatusId":"099aj5df-4y42-4700-d8d6-3714fdb43e68","billStatusName":"自由","billStatusCode":"01","stockBillBelong":"0DKeeV9TPwv3UZiad8EH","customerId":null,"customerCode":null,"customerName":null,"bizPersonId":"0mWG6nOSCxjsi1zoKEYs","bizPersonCode":"007","bizPersonName":"师孟奇","deparmentId":"ae96b9ed-82dc-4aa7-bf97-cdd18a18c1a9","deparmentCode":"01010102","deparmentName":"城市经理","logisticsId":null,"logisticsCode":null,"logisticsName":null,"siger":null,"signTime":"","cancelReason":null,"remark":"自动化测试编辑调拨入库单，修改实入数量","realLogisticsCompanyId":null,"realLogisticsCompanyCode":null,"realLogisticsCompanyName":null,"logisticsBillCode":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","dr":0,"ts":1589002318000,"creator":"smq","creationTime":1589002318000,"modifier":null,"modifiedTime":null,"persistStatus":"upd","promptMessage":null,"stockOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgInCode":"1210","stockOrgInName":"西安喜马拉雅网络科技有限公司","inIfSlotManage":null,"transferBillOutItems":[{"transferOutBill":null,"rowNum":10,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","totalShouldOutNum":null,"factOutNum":"3.000000","unitPrice":"","amountMoney":"0.00","batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"stockOutDate":"","receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"firstBillCode":"DBO20200508000034","firstBillBcode":"0Tr6HVsgvmzwBQYy2d6i","firstBillType":"Allocation","srcBillCode":"DBO20200508000034","srcBillBcode":"0Tr6HVsgvmzwBQYy2d6i","srcBillType":"Allocation","remark":null,"goodsVersion":"1","batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelection":null,"goodsSelectionDescription":null,"id":"0RVbhbtQZhT5PZkp19zW","dr":0,"ts":1589002336000,"creator":"smq","creationTime":1589002336000,"modifier":null,"modifiedTime":null,"persistStatus":"upd","promptMessage":null,"transferOutBillId":"0TszFCIVqcbJkmpWHQhq","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","enableBatchNumberManage":null,"productId":null,"productCode":null,"productLineId":null,"isOptional":null,"shouldOutNum":5,"isMotherPiece":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"ext01":"5.00000000","ext02":null,"ext03":"Allocation","ext04":"Allocation","ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"outStorageId":null,"outStorageCode":null,"outStorageName":null,"outIfSlotManage":null,"inStorageId":null,"inStorageCode":null,"inStorageName":null,"inIfSlotManage":null}],"transferOutBillItemBoms":[{"transferOutBill":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","totalShouldOutNum":null,"factOutNum":3,"unitPrice":"","amountMoney":"0.00","batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"stockOutDate":"","receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"firstBillCode":"0DKeeV9TPwv3UZiad8EH","firstBillBcode":"0Tr6HVsgvmzwBQYy2d6i","firstBillType":"Allocation","srcBillCode":"DBO20200508000034","srcBillBcode":"0Tr6HVsgvmzwBQYy2d6i","srcBillType":"Allocation","remark":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentRowNum":"10","childGoodsQty":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"id":"0K1xchlRSFmYGxaooi2J","dr":0,"ts":1589002336000,"creator":"smq","creationTime":1589002336000,"modifier":null,"modifiedTime":null,"persistStatus":"upd","promptMessage":null,"goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","enableBatchNumberManage":null,"productId":null,"productLineId":null,"shouldOutNum":5,"itemId":"0RVbhbtQZhT5PZkp19zW","billId":null,"parentGoodsdisplayName":null,"firstBillBomCode":"0CrhvlIZ5uIVEXmYN9Hq","srcBillBomCode":"0CrhvlIZ5uIVEXmYN9Hq","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null}],"srcSystem":null,"srcSystemId":null,"srcSystemCode":null,"srcSystemName":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"sycnOutStatus":null,"sycnNCStatus":null}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>/occ-stock/stock/transfer-out-bills/batch-un-sign</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":null,"pkOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgCode":null,"pkOrgName":null,"pkOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgInCode":null,"pkOrgInName":null,"code":null,"billDate":1589212800000,"billType":"Allocation","billTranTypeId":"Allocation","billTranTypeCode":null,"billTranTypeName":null,"outBizPersonId":null,"outBizPersonCode":null,"outBizPersonName":null,"inBizPersonId":"0mWG6nOSCxjsi1zoKEYs","inBizPersonCode":null,"inBizPersonName":null,"outDeptId":"0K1ovYvAl1Pk00oCRPjV","outDeptCode":null,"outDeptName":null,"inDeptId":null,"inDeptCode":null,"inDeptName":null,"planSendDate":"","planArriveDate":"","currencyId":"CURRENCY-01","currencyCode":null,"currencyName":"人民币","totalFactInNum":null,"totalFactOutNum":null,"billStatusId":null,"billStatusCode":null,"billStatusName":null,"transferStatusId":null,"transferStatusCode":"1","transferStatusName":"待处理","state":0,"stockBillBelong":null,"customerId":null,"customerName":null,"customerCode":null,"isClose":"0","closer":null,"closeDate":null,"closeReason":null,"approver":null,"approveTime":null,"approveOpinion":null,"remark":"自动化测试新增调拨单","isDistribution":null,"isReturned":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":null,"outStorageName":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":null,"inStorageName":null,"receiverAddress":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"persistStatus":"new","transferBillItems":[{"id":null,"rowNum":10,"dr":null,"TransferBillId":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":null,"goodsAssistUnitName":null,"goodsConversionRate":null,"enableBatchNumberManage":"0","enableBatchNoManage":"0","enableInvStatusManage":"0","isOptional":null,"productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","unitId":"UNIT-12","unitCode":null,"unitName":"个","transferNum":"30","onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":"0.00","remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":"0","sourceId":null,"sourceLineNum":null,"sourceNum":null,"goodsVersion":"1","batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelection":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":null,"outStorageName":null,"outIfSlotManage":"0","ifSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":null,"inStorageName":null,"inIfSlotManage":"0","outPositionId":null,"outPositionCode":null,"outPositionName":null,"persistStatus":"new"}],"transferBillItemBoms":[{"id":null,"rowNum":10,"TransferBillId":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":null,"goodsAssistUnitName":null,"goodsConversionRate":null,"enableBatchNumberManage":"0","enableBatchNoManage":"0","enableInvStatusManage":"0","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","unitId":"UNIT-12","unitCode":null,"unitName":"个","transferNum":30,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":"0","sourceId":null,"sourceLineNum":null,"sourceNum":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":null,"parentGoodsName":null,"parentRowNum":10,"childGoodsQty":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":null,"outStorageName":null,"outIfSlotManage":"0","inStorageId":"1001ZZ100000000DPAP6","inStorageCode":null,"inStorageName":null,"inIfSlotManage":"0","outPositionId":null,"outPositionCode":null,"outPositionName":null,"dr":null,"isOptional":null,"ifSlotManage":null,"persistStatus":"new"}]}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0kxUvN0mm3QI7AhjYqSM","dr":0,"ts":1589273772000,"creator":"smq","creationTime":1589273772000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"pkOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgCode":"1210","pkOrgName":"西安喜马拉雅网络科技有限公司","pkOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgInCode":"1210","pkOrgInName":"西安喜马拉雅网络科技有限公司","code":"DBO20200512000019","billDate":1589212800000,"billType":"Allocation","billTranTypeId":"Allocation","billTranTypeCode":"Allocation","billTranTypeName":"调拨单","outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outBizPersonId":null,"outBizPersonCode":null,"outBizPersonName":null,"inBizPersonId":"0mWG6nOSCxjsi1zoKEYs","inBizPersonCode":"007","inBizPersonName":"师孟奇","outDeptId":"0K1ovYvAl1Pk00oCRPjV","outDeptCode":"01010102","outDeptName":"城市经理","inDeptId":null,"inDeptCode":null,"inDeptName":null,"planSendDate":null,"planArriveDate":null,"currencyId":"CURRENCY-01","currencyCode":"RMB","currencyName":"人民币","totalFactOutNum":null,"totalFactInNum":null,"billStatusId":null,"billStatusCode":null,"billStatusName":null,"transferStatusId":"0s21f51f-4f42-4100-dkd0-3254fbq33e6k","transferStatusCode":"1","transferStatusName":"待处理","stockBillBelong":null,"customerId":null,"customerName":null,"customerCode":null,"isClose":0,"closer":null,"closeDate":null,"closeReason":null,"remark":"自动化测试新增调拨单","transferBillItems":[{"id":"0Wfar8LVlCZOkFv2gos9","dr":0,"ts":1589273775000,"creator":"smq","creationTime":1589273775000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":10,"transferBillId":"0kxUvN0mm3QI7AhjYqSM","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":30.00000000,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0E-8,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"transferBillItemBoms":[{"id":"0rYlYTDrAqKnyukQYYWh","dr":0,"ts":1589273775000,"creator":"smq","creationTime":1589273775000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":30.00000000,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0E-8,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"itemId":"0Wfar8LVlCZOkFv2gos9","billId":"0kxUvN0mm3QI7AhjYqSM","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentGoodsdisplayName":null,"parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":null,"srcBillBomCode":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"isDistribution":null,"isReturned":null}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0kxUvN0mm3QI7AhjYqSM","pkOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgCode":"1210","pkOrgName":"西安喜马拉雅网络科技有限公司","pkOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgInCode":"1210","pkOrgInName":"西安喜马拉雅网络科技有限公司","code":"DBO20200512000019","billDate":1589212800000,"billType":"Allocation","billTranTypeId":"Allocation","billTranTypeCode":"Allocation","billTranTypeName":"调拨单","outBizPersonId":null,"outBizPersonCode":null,"outBizPersonName":null,"inBizPersonId":"0mWG6nOSCxjsi1zoKEYs","inBizPersonCode":"007","inBizPersonName":"师孟奇","outDeptId":"0K1ovYvAl1Pk00oCRPjV","outDeptCode":"01010102","outDeptName":"城市经理","inDeptId":null,"inDeptCode":null,"inDeptName":null,"planSendDate":"","planArriveDate":"","currencyId":"CURRENCY-01","currencyCode":"RMB","currencyName":"人民币","totalFactInNum":null,"totalFactOutNum":null,"billStatusId":null,"billStatusCode":null,"billStatusName":null,"transferStatusId":"0s21f51f-4f42-4100-dkd0-3254fbq33e6k","transferStatusCode":"1","transferStatusName":"待处理","state":0,"stockBillBelong":null,"customerId":null,"customerName":null,"customerCode":null,"isClose":0,"closer":null,"closeDate":null,"closeReason":null,"approver":null,"approveTime":null,"approveOpinion":null,"remark":"自动化测试编辑调拨单","isDistribution":null,"isReturned":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","receiverAddress":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"dr":0,"ts":1589273772000,"creator":"smq","creationTime":1589273772000,"modifier":null,"modifiedTime":null,"persistStatus":"upd","promptMessage":null,"sycnNCStatus":null,"sycnOutStatus":null,"outIfSlotManage":null,"inIfSlotManage":null,"transferBillItems":[{"id":"0Wfar8LVlCZOkFv2gos9","rowNum":10,"dr":0,"TransferBillId":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1,"enableBatchNumberManage":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"isOptional":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":"25","onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceNum":null,"goodsVersion":"1","batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelection":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"ifSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null,"ts":1589273775000,"creator":"smq","creationTime":1589273775000,"modifier":null,"modifiedTime":null,"persistStatus":"upd","promptMessage":null,"transferBillId":"0kxUvN0mm3QI7AhjYqSM","sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"isMotherPiece":null}],"transferBillItemBoms":[{"id":"0rYlYTDrAqKnyukQYYWh","rowNum":"10","TransferBillId":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1,"enableBatchNumberManage":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":25,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceNum":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentRowNum":"10","childGoodsQty":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null,"dr":0,"ts":1589273775000,"creator":"smq","creationTime":1589273775000,"modifier":null,"modifiedTime":null,"persistStatus":"upd","promptMessage":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"itemId":"0Wfar8LVlCZOkFv2gos9","billId":"0kxUvN0mm3QI7AhjYqSM","parentGoodsdisplayName":null,"firstBillBomCode":null,"srcBillBomCode":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0kxUvN0mm3QI7AhjYqSM","dr":0,"ts":1589273890361,"creator":"smq","creationTime":1589273772000,"modifier":"smq","modifiedTime":1589273890361,"persistStatus":"nrm","promptMessage":null,"state":0,"approver":null,"approveTime":null,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"pkOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgCode":"1210","pkOrgName":"西安喜马拉雅网络科技有限公司","pkOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgInCode":"1210","pkOrgInName":"西安喜马拉雅网络科技有限公司","code":"DBO20200512000019","billDate":1589212800000,"billType":"Allocation","billTranTypeId":"Allocation","billTranTypeCode":"Allocation","billTranTypeName":"调拨单","outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outBizPersonId":null,"outBizPersonCode":null,"outBizPersonName":null,"inBizPersonId":"0mWG6nOSCxjsi1zoKEYs","inBizPersonCode":"007","inBizPersonName":"师孟奇","outDeptId":"0K1ovYvAl1Pk00oCRPjV","outDeptCode":"01010102","outDeptName":"城市经理","inDeptId":null,"inDeptCode":null,"inDeptName":null,"planSendDate":null,"planArriveDate":null,"currencyId":"CURRENCY-01","currencyCode":"RMB","currencyName":"人民币","totalFactOutNum":null,"totalFactInNum":null,"billStatusId":null,"billStatusCode":null,"billStatusName":null,"transferStatusId":"0s21f51f-4f42-4100-dkd0-3254fbq33e6k","transferStatusCode":"1","transferStatusName":"待处理","stockBillBelong":null,"customerId":null,"customerName":null,"customerCode":null,"isClose":0,"closer":null,"closeDate":null,"closeReason":null,"remark":"自动化测试编辑调拨单","transferBillItems":[{"id":"0Wfar8LVlCZOkFv2gos9","dr":0,"ts":1589273890362,"creator":"smq","creationTime":1589273775000,"modifier":"smq","modifiedTime":1589273890362,"persistStatus":"nrm","promptMessage":null,"rowNum":10,"transferBillId":"0kxUvN0mm3QI7AhjYqSM","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":25,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"transferBillItemBoms":[{"id":"0rYlYTDrAqKnyukQYYWh","dr":0,"ts":1589273890362,"creator":"smq","creationTime":1589273775000,"modifier":"smq","modifiedTime":1589273890362,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":25,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"itemId":"0Wfar8LVlCZOkFv2gos9","billId":"0kxUvN0mm3QI7AhjYqSM","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentGoodsdisplayName":null,"parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":null,"srcBillBomCode":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"isDistribution":null,"isReturned":null}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":"success","message":"&amp;#25552;&amp;#20132;&amp;#25104;&amp;#21151;","detailMsg":{"data":[{"id":"0kxUvN0mm3QI7AhjYqSM","dr":0,"ts":1589273948112,"creator":"smq","creationTime":1589273772000,"modifier":"smq","modifiedTime":1589273948112,"persistStatus":"upd","promptMessage":null,"state":1,"approver":"smq","approveTime":1589273948112,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"pkOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgCode":"1210","pkOrgName":"西安喜马拉雅网络科技有限公司","pkOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgInCode":"1210","pkOrgInName":"西安喜马拉雅网络科技有限公司","code":"DBO20200512000019","billDate":1589212800000,"billType":"Allocation","billTranTypeId":"Allocation","billTranTypeCode":"Allocation","billTranTypeName":"调拨单","outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outBizPersonId":null,"outBizPersonCode":null,"outBizPersonName":null,"inBizPersonId":"0mWG6nOSCxjsi1zoKEYs","inBizPersonCode":"007","inBizPersonName":"师孟奇","outDeptId":"0K1ovYvAl1Pk00oCRPjV","outDeptCode":"01010102","outDeptName":"城市经理","inDeptId":null,"inDeptCode":null,"inDeptName":null,"planSendDate":null,"planArriveDate":null,"currencyId":"CURRENCY-01","currencyCode":"RMB","currencyName":"人民币","totalFactOutNum":null,"totalFactInNum":null,"billStatusId":null,"billStatusCode":null,"billStatusName":null,"transferStatusId":"0s21f51f-4f42-4100-dkd0-3254fbq33e6k","transferStatusCode":"1","transferStatusName":"待处理","stockBillBelong":null,"customerId":null,"customerName":null,"customerCode":null,"isClose":0,"closer":null,"closeDate":null,"closeReason":null,"remark":"自动化测试编辑调拨单","transferBillItems":[{"id":"0Wfar8LVlCZOkFv2gos9","dr":0,"ts":1589273890000,"creator":"smq","creationTime":1589273775000,"modifier":"smq","modifiedTime":1589273890000,"persistStatus":"nrm","promptMessage":null,"rowNum":10,"transferBillId":"0kxUvN0mm3QI7AhjYqSM","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":25.00000000,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0E-8,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"transferBillItemBoms":[{"id":"0rYlYTDrAqKnyukQYYWh","dr":0,"ts":1589273890000,"creator":"smq","creationTime":1589273775000,"modifier":"smq","modifiedTime":1589273890000,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":25.00000000,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0E-8,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"itemId":"0Wfar8LVlCZOkFv2gos9","billId":"0kxUvN0mm3QI7AhjYqSM","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentGoodsdisplayName":null,"parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":null,"srcBillBomCode":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"isDistribution":null,"isReturned":null}]}}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":"success","message":"&amp;#25910;&amp;#22238;&amp;#25104;&amp;#21151;","detailMsg":{"data":[{"id":"0kxUvN0mm3QI7AhjYqSM","dr":0,"ts":1589273975202,"creator":"smq","creationTime":1589273772000,"modifier":"smq","modifiedTime":1589273975202,"persistStatus":"upd","promptMessage":null,"state":0,"approver":"smq","approveTime":1589273975202,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"pkOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgCode":"1210","pkOrgName":"西安喜马拉雅网络科技有限公司","pkOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgInCode":"1210","pkOrgInName":"西安喜马拉雅网络科技有限公司","code":"DBO20200512000019","billDate":1589212800000,"billType":"Allocation","billTranTypeId":"Allocation","billTranTypeCode":"Allocation","billTranTypeName":"调拨单","outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outBizPersonId":null,"outBizPersonCode":null,"outBizPersonName":null,"inBizPersonId":"0mWG6nOSCxjsi1zoKEYs","inBizPersonCode":"007","inBizPersonName":"师孟奇","outDeptId":"0K1ovYvAl1Pk00oCRPjV","outDeptCode":"01010102","outDeptName":"城市经理","inDeptId":null,"inDeptCode":null,"inDeptName":null,"planSendDate":null,"planArriveDate":null,"currencyId":"CURRENCY-01","currencyCode":"RMB","currencyName":"人民币","totalFactOutNum":null,"totalFactInNum":null,"billStatusId":null,"billStatusCode":null,"billStatusName":null,"transferStatusId":"0s21f51c-4d42-4100-dkd0-3254fbq33e6k","transferStatusCode":"2","transferStatusName":"已提交审批","stockBillBelong":null,"customerId":null,"customerName":null,"customerCode":null,"isClose":0,"closer":null,"closeDate":null,"closeReason":null,"remark":"自动化测试编辑调拨单","transferBillItems":[{"id":"0Wfar8LVlCZOkFv2gos9","dr":0,"ts":1589273890000,"creator":"smq","creationTime":1589273775000,"modifier":"smq","modifiedTime":1589273890000,"persistStatus":"nrm","promptMessage":null,"rowNum":10,"transferBillId":"0kxUvN0mm3QI7AhjYqSM","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":25.00000000,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0E-8,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"transferBillItemBoms":[{"id":"0rYlYTDrAqKnyukQYYWh","dr":0,"ts":1589273890000,"creator":"smq","creationTime":1589273775000,"modifier":"smq","modifiedTime":1589273890000,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":25.00000000,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0E-8,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"itemId":"0Wfar8LVlCZOkFv2gos9","billId":"0kxUvN0mm3QI7AhjYqSM","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentGoodsdisplayName":null,"parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":null,"srcBillBomCode":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"isDistribution":null,"isReturned":null}]}}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":"success","message":"&amp;#23457;&amp;#25209;&amp;#36890;&amp;#36807;&amp;#25104;&amp;#21151;","detailMsg":{"data":[{"id":"0kxUvN0mm3QI7AhjYqSM","dr":0,"ts":1589274004553,"creator":"smq","creationTime":1589273772000,"modifier":"smq","modifiedTime":1589274004553,"persistStatus":"upd","promptMessage":null,"state":3,"approver":"smq","approveTime":1589274004553,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"pkOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgCode":"1210","pkOrgName":"西安喜马拉雅网络科技有限公司","pkOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","pkOrgInCode":"1210","pkOrgInName":"西安喜马拉雅网络科技有限公司","code":"DBO20200512000019","billDate":1589212800000,"billType":"Allocation","billTranTypeId":"Allocation","billTranTypeCode":"Allocation","billTranTypeName":"调拨单","outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outBizPersonId":null,"outBizPersonCode":null,"outBizPersonName":null,"inBizPersonId":"0mWG6nOSCxjsi1zoKEYs","inBizPersonCode":"007","inBizPersonName":"师孟奇","outDeptId":"0K1ovYvAl1Pk00oCRPjV","outDeptCode":"01010102","outDeptName":"城市经理","inDeptId":null,"inDeptCode":null,"inDeptName":null,"planSendDate":null,"planArriveDate":null,"currencyId":"CURRENCY-01","currencyCode":"RMB","currencyName":"人民币","totalFactOutNum":null,"totalFactInNum":null,"billStatusId":null,"billStatusCode":null,"billStatusName":null,"transferStatusId":"0s21f51c-4d42-4100-dkd0-3254fbq33e6k","transferStatusCode":"2","transferStatusName":"已提交审批","stockBillBelong":null,"customerId":null,"customerName":null,"customerCode":null,"isClose":0,"closer":null,"closeDate":null,"closeReason":null,"remark":"自动化测试编辑调拨单","transferBillItems":[{"id":"0Wfar8LVlCZOkFv2gos9","dr":0,"ts":1589273890000,"creator":"smq","creationTime":1589273775000,"modifier":"smq","modifiedTime":1589273890000,"persistStatus":"nrm","promptMessage":null,"rowNum":10,"transferBillId":"0kxUvN0mm3QI7AhjYqSM","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":25.00000000,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0E-8,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"transferBillItemBoms":[{"id":"0rYlYTDrAqKnyukQYYWh","dr":0,"ts":1589273890000,"creator":"smq","creationTime":1589273775000,"modifier":"smq","modifiedTime":1589273890000,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","transferNum":25.00000000,"onwayNum":null,"totalOutNum":null,"totalInNum":null,"unitPrice":null,"amountMoney":0E-8,"remark":null,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"isClose":0,"sourceId":null,"sourceLineNum":null,"sourceType":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsVersion":"1","goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"itemId":"0Wfar8LVlCZOkFv2gos9","billId":"0kxUvN0mm3QI7AhjYqSM","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentGoodsdisplayName":null,"parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":null,"srcBillBomCode":null,"outStorageId":"1001ZZ100000000DPAP4","outStorageCode":"test030201","outStorageName":"测试仓库030201","outIfSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"outPositionId":null,"outPositionCode":null,"outPositionName":null}],"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"isDistribution":null,"isReturned":null}]}}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":null,"stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","billCode":null,"billDate":1589212800000,"billType":"AllocationOut","billTranTypeId":"AllocationOut","billTranTypeCode":null,"billTranTypeName":null,"storageId":"1001ZZ100000000DPAP4","storageCode":"test030201","storageName":"测试仓库030201","ifSlotManage":null,"storekeeperId":null,"storekeeperCode":null,"storekeeperName":null,"planSendDate":"","planArriveDate":"","currencyId":null,"currencyCode":null,"currencyName":null,"totalShouldOutNum":"25.00","totalFactOutNum":"20.00","billStatusId":null,"billStatusName":"自由","billStatusCode":"01","stockBillBelong":"0kxUvN0mm3QI7AhjYqSM","customerId":null,"customerCode":null,"customerName":null,"bizPersonId":null,"bizPersonCode":null,"bizPersonName":null,"deparmentId":"0K1ovYvAl1Pk00oCRPjV","deparmentCode":"01010102","deparmentName":"城市经理","logisticsId":null,"logisticsCode":null,"logisticsName":null,"siger":null,"signTime":"","cancelReason":null,"remark":"自动化测试参照调拨单新增调拨出库单","realLogisticsCompanyId":null,"realLogisticsCompanyCode":null,"realLogisticsCompanyName":null,"logisticsBillCode":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","dr":0,"ts":null,"creator":null,"creationTime":null,"modifier":null,"modifiedTime":null,"persistStatus":"upd","promptMessage":null,"stockOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgInCode":"1210","stockOrgInName":"西安喜马拉雅网络科技有限公司","inIfSlotManage":null,"transferBillOutItems":[{"transferOutBill":null,"rowNum":10,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":null,"goodsAssistUnitName":null,"goodsConversionRate":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","totalShouldOutNum":null,"factOutNum":"20.000000","unitPrice":"","amountMoney":"0.00","batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"stockOutDate":"","receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"firstBillCode":"DBO20200512000019","firstBillBcode":"0Wfar8LVlCZOkFv2gos9","firstBillType":"Allocation","srcBillCode":"DBO20200512000019","srcBillBcode":"0Wfar8LVlCZOkFv2gos9","srcBillType":"Allocation","remark":null,"goodsVersion":"1","batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelection":null,"goodsSelectionDescription":null,"id":null,"dr":0,"ts":null,"creator":null,"creationTime":null,"modifier":null,"modifiedTime":null,"persistStatus":"new","promptMessage":null,"transferOutBillId":null,"goodsDisplayName":null,"enableBatchNumberManage":null,"productId":null,"productCode":null,"productLineId":null,"isOptional":null,"shouldOutNum":25,"isMotherPiece":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"ext01":null,"ext02":null,"ext03":"Allocation","ext04":"Allocation","ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"outStorageId":null,"outStorageCode":null,"outStorageName":null,"outIfSlotManage":null,"inStorageId":null,"inStorageCode":null,"inStorageName":null,"inIfSlotManage":null}],"transferOutBillItemBoms":[{"transferOutBill":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsFullName":null,"goodsBasicUnitName":null,"goodsAssistUnitName":null,"goodsConversionRate":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","totalShouldOutNum":null,"factOutNum":20,"unitPrice":"","amountMoney":"0.00","batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"stockOutDate":"","receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"firstBillCode":"0kxUvN0mm3QI7AhjYqSM","firstBillBcode":"0Wfar8LVlCZOkFv2gos9","firstBillType":"Allocation","srcBillCode":"DBO20200512000019","srcBillBcode":"0Wfar8LVlCZOkFv2gos9","srcBillType":"Allocation","remark":null,"goodsVersion":"1","goodsSelection":null,"goodsNum":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentRowNum":"10","childGoodsQty":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"supplierId":null,"supplierName":null,"supplierCode":null,"projectId":null,"projectCode":null,"projectName":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"customerId":null,"customerCode":null,"customerName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"id":null,"dr":0,"ts":null,"creator":null,"creationTime":null,"modifier":null,"modifiedTime":null,"persistStatus":"new","promptMessage":null,"goodsDisplayName":null,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"shouldOutNum":25,"itemId":null,"billId":null,"parentGoodsdisplayName":null,"firstBillBomCode":"0rYlYTDrAqKnyukQYYWh","srcBillBomCode":"0rYlYTDrAqKnyukQYYWh","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null}],"srcSystem":null,"srcSystemId":null,"srcSystemCode":null,"srcSystemName":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"sycnOutStatus":null,"sycnNCStatus":null}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"0QzEVVCjk0XWHmc8XW1e","dr":0,"ts":1589274143000,"creator":"smq","creationTime":1589274143000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":"","stockOrgId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgCode":"1210","stockOrgName":"西安喜马拉雅网络科技有限公司","stockOrgInId":"abd7cf79-511d-4307-9bbd-d288b18d0ef9","stockOrgInCode":"1210","stockOrgInName":"西安喜马拉雅网络科技有限公司","billCode":"TDN2020051200009","billDate":1589212800000,"billType":"AllocationOut","billTranTypeId":"AllocationOut","billTranTypeCode":"AllocationOut","billTranTypeName":"调拨出库","storageId":"1001ZZ100000000DPAP4","storageCode":"test030201","storageName":"测试仓库030201","ifSlotManage":null,"inStorageId":"1001ZZ100000000DPAP6","inStorageCode":"test030202","inStorageName":"test030202","inIfSlotManage":null,"storekeeperId":null,"storekeeperCode":null,"storekeeperName":null,"planSendDate":null,"planArriveDate":null,"currencyId":null,"currencyCode":null,"currencyName":null,"totalShouldOutNum":25.00000000,"totalFactOutNum":20.00000000,"billStatusId":"099aj5df-4y42-4700-d8d6-3714fdb43e68","billStatusCode":"01","billStatusName":"自由","stockBillBelong":"0kxUvN0mm3QI7AhjYqSM","customerId":null,"customerCode":null,"customerName":null,"bizPersonId":null,"bizPersonCode":null,"bizPersonName":null,"deparmentId":"0K1ovYvAl1Pk00oCRPjV","deparmentCode":"01010102","deparmentName":"城市经理","logisticsId":null,"logisticsCode":null,"logisticsName":null,"realLogisticsCompanyId":null,"realLogisticsCompanyCode":null,"realLogisticsCompanyName":null,"logisticsBillCode":null,"siger":null,"signTime":null,"cancelReason":null,"remark":"自动化测试参照调拨单新增调拨出库单","transferBillOutItems":[{"id":"0P8IrZN6W1PNnqna2SLI","dr":0,"ts":1589274152000,"creator":"smq","creationTime":1589274152000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"transferOutBillId":"0QzEVVCjk0XWHmc8XW1e","rowNum":10,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productCode":null,"productLineId":null,"isOptional":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","shouldOutNum":25.00000000,"factOutNum":20.00000000,"unitPrice":null,"amountMoney":0E-8,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"stockOutDate":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"firstBillCode":"DBO20200512000019","firstBillBcode":"0Wfar8LVlCZOkFv2gos9","firstBillType":"Allocation","srcBillCode":"DBO20200512000019","srcBillBcode":"0Wfar8LVlCZOkFv2gos9","srcBillType":"Allocation","remark":null,"goodsVersion":"1","goodsSelection":null,"isMotherPiece":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"enableBatchNoManage":null,"enableInvStatusManage":null,"originalGoodsId":null,"goodsSelectionDescription":null,"ext01":null,"ext02":null,"ext03":"Allocation","ext04":"Allocation","ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"outStorageId":null,"outStorageCode":null,"outStorageName":null,"outIfSlotManage":null,"inStorageId":null,"inStorageCode":null,"inStorageName":null,"inIfSlotManage":null}],"transferOutBillItemBoms":[{"id":"0Il4I5YzeSjivhdsEfOx","dr":0,"ts":1589274152000,"creator":"smq","creationTime":1589274152000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsBasicUnitName":"个","goodsAssistUnitName":"个","goodsConversionRate":1.000000,"enableBatchNumberManage":null,"productId":null,"productLineId":null,"unitId":"UNIT-12","unitCode":"EA","unitName":"个","shouldOutNum":25.00000000,"factOutNum":20.00000000,"unitPrice":null,"amountMoney":0E-8,"batchNumId":null,"batchNumCode":null,"batchNumName":null,"goodsPositionId":null,"goodsPositionCode":null,"goodsPositionName":null,"stockOutPersonId":null,"stockOutPersonCode":null,"stockOutPersonName":null,"stockOutDate":null,"receiverAddress":null,"provinceId":null,"provinceCode":null,"provinceName":null,"cityId":null,"cityCode":null,"cityName":null,"countyId":null,"countyCode":null,"countyName":null,"townId":null,"townCode":null,"townName":null,"detailAddr":null,"receiver":null,"receiverPhone":null,"receiverPhoneSpare":null,"firstBillCode":"0kxUvN0mm3QI7AhjYqSM","firstBillBcode":"0Wfar8LVlCZOkFv2gos9","firstBillType":"Allocation","srcBillCode":"DBO20200512000019","srcBillBcode":"0Wfar8LVlCZOkFv2gos9","srcBillType":"Allocation","remark":null,"goodsVersion":"1","goodsSelection":null,"customerId":null,"customerCode":null,"customerName":null,"supplierId":null,"supplierCode":null,"supplierName":null,"projectId":null,"projectCode":null,"projectName":null,"batchCodeId":null,"batchCodeCode":null,"stockStateId":null,"stockStateCode":null,"stockStateName":null,"originalGoodsId":null,"goodsSelectionDescription":null,"itemId":"0P8IrZN6W1PNnqna2SLI","billId":null,"parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","parentGoodsdisplayName":null,"parentRowNum":"10","childGoodsQty":null,"firstBillBomCode":"0rYlYTDrAqKnyukQYYWh","srcBillBomCode":"0rYlYTDrAqKnyukQYYWh","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null}],"srcSystem":null,"srcSystemId":null,"srcSystemCode":null,"srcSystemName":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"sycnOutStatus":null,"sycnNCStatus":null}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"$..id"}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"billId":"$..id"}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"stockBillBelong":"$..billId",
+"firstBillCode":"$..billId",
+"firstBillBcode":"$..itemId",
+"srcBillCode":"$..code",
+"firstBillBomCode":"$.detailMsg.data[0].transferBillItemBoms[0].id",
+"srcBillBomCode":"$.detailMsg.data[0].transferBillItemBoms[0].id"
+}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ids":"$..id"}</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1331,6 +1353,22 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1361,30 +1399,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1750,9 +1772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IY245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -1766,30 +1788,29 @@
     <col min="8" max="9" width="32.1640625" style="20" customWidth="1"/>
     <col min="10" max="10" width="32.1640625" style="31" customWidth="1"/>
     <col min="11" max="12" width="32.1640625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="32.1640625" style="56" customWidth="1"/>
-    <col min="14" max="14" width="32.1640625" style="52" customWidth="1"/>
-    <col min="15" max="16" width="32.1640625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="32.1640625" style="43" customWidth="1"/>
+    <col min="14" max="16" width="32.1640625" style="20" customWidth="1"/>
     <col min="17" max="16382" width="9.1640625" style="15"/>
     <col min="16383" max="16384" width="9.1640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:259" ht="90.75" customHeight="1" thickBot="1">
       <c r="A1" s="29"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
@@ -1863,7 +1884,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>18</v>
@@ -1880,14 +1901,14 @@
       <c r="L2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="54" t="s">
         <v>30</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P2" s="34" t="s">
         <v>27</v>
@@ -1959,10 +1980,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>22</v>
@@ -1974,10 +1995,10 @@
         <v>19</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>26</v>
@@ -1986,13 +2007,13 @@
         <v>200</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="L3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="37"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="55"/>
       <c r="O3" s="37"/>
       <c r="P3" s="37" t="s">
         <v>16</v>
@@ -2246,23 +2267,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>26</v>
@@ -2271,16 +2292,16 @@
         <v>200</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="50" t="s">
-        <v>37</v>
+      <c r="M4" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="56" t="s">
+        <v>126</v>
       </c>
       <c r="O4" s="36"/>
       <c r="P4" s="37"/>
@@ -2533,10 +2554,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>22</v>
@@ -2545,13 +2566,13 @@
         <v>28</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>26</v>
@@ -2560,16 +2581,16 @@
         <v>200</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="50" t="s">
-        <v>37</v>
+      <c r="M5" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="56" t="s">
+        <v>126</v>
       </c>
       <c r="O5" s="36"/>
       <c r="P5" s="37"/>
@@ -2822,25 +2843,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>26</v>
@@ -2849,16 +2870,16 @@
         <v>200</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="L6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="50" t="s">
-        <v>31</v>
+      <c r="M6" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="56" t="s">
+        <v>127</v>
       </c>
       <c r="O6" s="36"/>
       <c r="P6" s="37" t="s">
@@ -3113,25 +3134,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>26</v>
@@ -3140,16 +3161,16 @@
         <v>200</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="L7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="50" t="s">
-        <v>31</v>
+      <c r="M7" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="56" t="s">
+        <v>127</v>
       </c>
       <c r="O7" s="36"/>
       <c r="P7" s="37"/>
@@ -3402,25 +3423,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>26</v>
@@ -3429,16 +3450,16 @@
         <v>200</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="L8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="50" t="s">
-        <v>31</v>
+      <c r="M8" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="56" t="s">
+        <v>127</v>
       </c>
       <c r="O8" s="36"/>
       <c r="P8" s="37"/>
@@ -3691,28 +3712,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C9" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>55</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>59</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J9" s="35">
         <v>200</v>
@@ -3721,8 +3742,8 @@
       <c r="L9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="56"/>
       <c r="O9" s="36"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="13"/>
@@ -3969,30 +3990,30 @@
       <c r="IX9" s="15"/>
       <c r="IY9" s="15"/>
     </row>
-    <row r="10" spans="1:259" s="12" customFormat="1" ht="57" customHeight="1" thickBot="1">
+    <row r="10" spans="1:259" s="12" customFormat="1" ht="102" customHeight="1" thickBot="1">
       <c r="A10" s="24">
         <v>8</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>26</v>
@@ -4001,15 +4022,17 @@
         <v>200</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="L10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="37"/>
+      <c r="M10" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="55" t="s">
+        <v>128</v>
+      </c>
       <c r="O10" s="37"/>
       <c r="P10" s="37" t="s">
         <v>16</v>
@@ -4263,23 +4286,23 @@
         <v>9</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="26" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>26</v>
@@ -4288,16 +4311,16 @@
         <v>200</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="N11" s="50" t="s">
-        <v>37</v>
+      <c r="M11" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="56" t="s">
+        <v>126</v>
       </c>
       <c r="O11" s="36"/>
       <c r="P11" s="37"/>
@@ -4550,25 +4573,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>26</v>
@@ -4577,16 +4600,16 @@
         <v>200</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" s="50" t="s">
-        <v>37</v>
+      <c r="M12" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="56" t="s">
+        <v>126</v>
       </c>
       <c r="O12" s="36"/>
       <c r="P12" s="37"/>
@@ -4839,28 +4862,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J13" s="35">
         <v>200</v>
@@ -4869,14 +4892,14 @@
       <c r="L13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="N13" s="37" t="s">
-        <v>81</v>
+      <c r="M13" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="55" t="s">
+        <v>129</v>
       </c>
       <c r="O13" s="37"/>
-      <c r="P13" s="48"/>
+      <c r="P13" s="38"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
@@ -5120,33 +5143,33 @@
       <c r="IW13" s="15"/>
       <c r="IX13" s="15"/>
     </row>
-    <row r="14" spans="1:259" s="12" customFormat="1" ht="41" customHeight="1" thickBot="1">
+    <row r="14" spans="1:259" s="12" customFormat="1" ht="64" customHeight="1" thickBot="1">
       <c r="A14" s="24">
         <v>12</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J14" s="35">
         <v>200</v>
@@ -5155,10 +5178,10 @@
       <c r="L14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="54"/>
-      <c r="N14" s="37"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="55"/>
       <c r="O14" s="37"/>
-      <c r="P14" s="48"/>
+      <c r="P14" s="38"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
@@ -5407,28 +5430,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J15" s="35">
         <v>200</v>
@@ -5437,14 +5460,14 @@
       <c r="L15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="N15" s="37" t="s">
-        <v>81</v>
+      <c r="M15" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="55" t="s">
+        <v>129</v>
       </c>
       <c r="O15" s="37"/>
-      <c r="P15" s="48"/>
+      <c r="P15" s="38"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
@@ -5693,25 +5716,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>96</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>103</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F16" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I16" s="28" t="s">
         <v>26</v>
@@ -5720,13 +5743,13 @@
         <v>200</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L16" s="36" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="36"/>
-      <c r="N16" s="37"/>
+      <c r="N16" s="55"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37" t="s">
         <v>16</v>
@@ -5980,23 +6003,23 @@
         <v>15</v>
       </c>
       <c r="B17" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>97</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>104</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="I17" s="28" t="s">
         <v>26</v>
@@ -6005,16 +6028,16 @@
         <v>200</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="L17" s="36" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="N17" s="36" t="s">
-        <v>37</v>
+        <v>89</v>
+      </c>
+      <c r="N17" s="56" t="s">
+        <v>126</v>
       </c>
       <c r="O17" s="36"/>
       <c r="P17" s="37"/>
@@ -6267,25 +6290,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>99</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>106</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I18" s="28" t="s">
         <v>26</v>
@@ -6294,16 +6317,16 @@
         <v>200</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L18" s="36" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="N18" s="36" t="s">
-        <v>37</v>
+        <v>89</v>
+      </c>
+      <c r="N18" s="56" t="s">
+        <v>126</v>
       </c>
       <c r="O18" s="36"/>
       <c r="P18" s="37"/>
@@ -6556,28 +6579,28 @@
         <v>17</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F19" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J19" s="35">
         <v>200</v>
@@ -6587,13 +6610,13 @@
         <v>20</v>
       </c>
       <c r="M19" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="N19" s="37" t="s">
-        <v>81</v>
+        <v>89</v>
+      </c>
+      <c r="N19" s="55" t="s">
+        <v>129</v>
       </c>
       <c r="O19" s="37"/>
-      <c r="P19" s="13"/>
+      <c r="P19" s="38"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
@@ -6842,28 +6865,28 @@
         <v>18</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F20" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J20" s="35">
         <v>200</v>
@@ -6873,9 +6896,9 @@
         <v>20</v>
       </c>
       <c r="M20" s="25"/>
-      <c r="N20" s="37"/>
+      <c r="N20" s="55"/>
       <c r="O20" s="37"/>
-      <c r="P20" s="13"/>
+      <c r="P20" s="38"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
@@ -7124,28 +7147,28 @@
         <v>19</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J21" s="35">
         <v>200</v>
@@ -7155,13 +7178,13 @@
         <v>20</v>
       </c>
       <c r="M21" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="N21" s="37" t="s">
-        <v>81</v>
+        <v>89</v>
+      </c>
+      <c r="N21" s="55" t="s">
+        <v>129</v>
       </c>
       <c r="O21" s="37"/>
-      <c r="P21" s="13"/>
+      <c r="P21" s="38"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
@@ -7414,8 +7437,8 @@
       <c r="J22" s="30"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="51"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="23"/>
       <c r="O22" s="23"/>
       <c r="P22" s="23"/>
     </row>
@@ -7428,8 +7451,8 @@
       <c r="J23" s="30"/>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="51"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="23"/>
       <c r="O23" s="23"/>
       <c r="P23" s="23"/>
     </row>
@@ -7442,8 +7465,8 @@
       <c r="J24" s="30"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="51"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="23"/>
       <c r="O24" s="23"/>
       <c r="P24" s="23"/>
     </row>
@@ -7456,8 +7479,8 @@
       <c r="J25" s="30"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="51"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="23"/>
       <c r="O25" s="23"/>
       <c r="P25" s="23"/>
     </row>
@@ -7470,8 +7493,8 @@
       <c r="J26" s="30"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="51"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="23"/>
       <c r="O26" s="23"/>
       <c r="P26" s="23"/>
     </row>
@@ -7484,8 +7507,8 @@
       <c r="J27" s="30"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="51"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="23"/>
       <c r="O27" s="23"/>
       <c r="P27" s="23"/>
     </row>
@@ -7498,8 +7521,8 @@
       <c r="J28" s="30"/>
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="51"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="23"/>
       <c r="O28" s="23"/>
       <c r="P28" s="23"/>
     </row>
@@ -7512,8 +7535,8 @@
       <c r="J29" s="30"/>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="51"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="23"/>
       <c r="O29" s="23"/>
       <c r="P29" s="23"/>
     </row>
@@ -7526,8 +7549,8 @@
       <c r="J30" s="30"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="51"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="23"/>
       <c r="O30" s="23"/>
       <c r="P30" s="23"/>
     </row>
@@ -7540,8 +7563,8 @@
       <c r="J31" s="30"/>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="51"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="23"/>
       <c r="O31" s="23"/>
       <c r="P31" s="23"/>
     </row>
@@ -7554,8 +7577,8 @@
       <c r="J32" s="30"/>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="51"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="23"/>
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
     </row>
@@ -7568,8 +7591,8 @@
       <c r="J33" s="30"/>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="51"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="23"/>
       <c r="O33" s="23"/>
       <c r="P33" s="23"/>
     </row>
@@ -7582,8 +7605,8 @@
       <c r="J34" s="30"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="51"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="23"/>
       <c r="O34" s="23"/>
       <c r="P34" s="23"/>
     </row>
@@ -7596,8 +7619,8 @@
       <c r="J35" s="30"/>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="51"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="23"/>
       <c r="O35" s="23"/>
       <c r="P35" s="23"/>
     </row>
@@ -7610,8 +7633,8 @@
       <c r="J36" s="30"/>
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="51"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="23"/>
       <c r="O36" s="23"/>
       <c r="P36" s="23"/>
     </row>
@@ -7624,8 +7647,8 @@
       <c r="J37" s="30"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="51"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="23"/>
       <c r="O37" s="23"/>
       <c r="P37" s="23"/>
     </row>
@@ -7638,8 +7661,8 @@
       <c r="J38" s="30"/>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="51"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="23"/>
       <c r="O38" s="23"/>
       <c r="P38" s="23"/>
     </row>
@@ -7652,8 +7675,8 @@
       <c r="J39" s="30"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="51"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="23"/>
       <c r="O39" s="23"/>
       <c r="P39" s="23"/>
     </row>
@@ -7666,8 +7689,8 @@
       <c r="J40" s="30"/>
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="51"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="23"/>
       <c r="O40" s="23"/>
       <c r="P40" s="23"/>
     </row>
@@ -7680,8 +7703,8 @@
       <c r="J41" s="30"/>
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="51"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="23"/>
       <c r="O41" s="23"/>
       <c r="P41" s="23"/>
     </row>
@@ -7694,8 +7717,8 @@
       <c r="J42" s="30"/>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="51"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="23"/>
       <c r="O42" s="23"/>
       <c r="P42" s="23"/>
     </row>
@@ -7708,8 +7731,8 @@
       <c r="J43" s="30"/>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="51"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="23"/>
       <c r="O43" s="23"/>
       <c r="P43" s="23"/>
     </row>
@@ -7722,8 +7745,8 @@
       <c r="J44" s="30"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="51"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="23"/>
       <c r="O44" s="23"/>
       <c r="P44" s="23"/>
     </row>
@@ -7736,8 +7759,8 @@
       <c r="J45" s="30"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="51"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="23"/>
       <c r="O45" s="23"/>
       <c r="P45" s="23"/>
     </row>
@@ -7750,8 +7773,8 @@
       <c r="J46" s="30"/>
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="51"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="23"/>
       <c r="O46" s="23"/>
       <c r="P46" s="23"/>
     </row>
@@ -7764,8 +7787,8 @@
       <c r="J47" s="30"/>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="51"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="23"/>
       <c r="O47" s="23"/>
       <c r="P47" s="23"/>
     </row>
@@ -7778,8 +7801,8 @@
       <c r="J48" s="30"/>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="51"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="23"/>
       <c r="O48" s="23"/>
       <c r="P48" s="23"/>
     </row>
@@ -7792,8 +7815,8 @@
       <c r="J49" s="30"/>
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="51"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="23"/>
       <c r="O49" s="23"/>
       <c r="P49" s="23"/>
     </row>
@@ -7806,8 +7829,8 @@
       <c r="J50" s="30"/>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="51"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="23"/>
       <c r="O50" s="23"/>
       <c r="P50" s="23"/>
     </row>
@@ -7820,8 +7843,8 @@
       <c r="J51" s="30"/>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="51"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="23"/>
       <c r="O51" s="23"/>
       <c r="P51" s="23"/>
     </row>
@@ -7834,8 +7857,8 @@
       <c r="J52" s="30"/>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
-      <c r="M52" s="55"/>
-      <c r="N52" s="51"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="23"/>
       <c r="O52" s="23"/>
       <c r="P52" s="23"/>
     </row>
@@ -7848,8 +7871,8 @@
       <c r="J53" s="30"/>
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="51"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="23"/>
       <c r="O53" s="23"/>
       <c r="P53" s="23"/>
     </row>
@@ -7862,8 +7885,8 @@
       <c r="J54" s="30"/>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
-      <c r="M54" s="55"/>
-      <c r="N54" s="51"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="23"/>
       <c r="O54" s="23"/>
       <c r="P54" s="23"/>
     </row>
@@ -7876,8 +7899,8 @@
       <c r="J55" s="30"/>
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="51"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="23"/>
       <c r="O55" s="23"/>
       <c r="P55" s="23"/>
     </row>
@@ -7890,8 +7913,8 @@
       <c r="J56" s="30"/>
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
-      <c r="M56" s="55"/>
-      <c r="N56" s="51"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="23"/>
       <c r="O56" s="23"/>
       <c r="P56" s="23"/>
     </row>
@@ -7904,8 +7927,8 @@
       <c r="J57" s="30"/>
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
-      <c r="M57" s="55"/>
-      <c r="N57" s="51"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="23"/>
       <c r="O57" s="23"/>
       <c r="P57" s="23"/>
     </row>
@@ -7918,8 +7941,8 @@
       <c r="J58" s="30"/>
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="51"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="23"/>
       <c r="O58" s="23"/>
       <c r="P58" s="23"/>
     </row>
@@ -7932,8 +7955,8 @@
       <c r="J59" s="30"/>
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
-      <c r="M59" s="55"/>
-      <c r="N59" s="51"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="23"/>
       <c r="O59" s="23"/>
       <c r="P59" s="23"/>
     </row>
@@ -7946,8 +7969,8 @@
       <c r="J60" s="30"/>
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
-      <c r="M60" s="55"/>
-      <c r="N60" s="51"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="23"/>
       <c r="O60" s="23"/>
       <c r="P60" s="23"/>
     </row>
@@ -7960,8 +7983,8 @@
       <c r="J61" s="30"/>
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
-      <c r="M61" s="55"/>
-      <c r="N61" s="51"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="23"/>
       <c r="O61" s="23"/>
       <c r="P61" s="23"/>
     </row>
@@ -7974,8 +7997,8 @@
       <c r="J62" s="30"/>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="51"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="23"/>
       <c r="O62" s="23"/>
       <c r="P62" s="23"/>
     </row>
@@ -7988,8 +8011,8 @@
       <c r="J63" s="30"/>
       <c r="K63" s="22"/>
       <c r="L63" s="22"/>
-      <c r="M63" s="55"/>
-      <c r="N63" s="51"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="23"/>
       <c r="O63" s="23"/>
       <c r="P63" s="23"/>
     </row>
@@ -8002,8 +8025,8 @@
       <c r="J64" s="30"/>
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
-      <c r="M64" s="55"/>
-      <c r="N64" s="51"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="23"/>
       <c r="O64" s="23"/>
       <c r="P64" s="23"/>
     </row>
@@ -8016,8 +8039,8 @@
       <c r="J65" s="30"/>
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
-      <c r="M65" s="55"/>
-      <c r="N65" s="51"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="23"/>
       <c r="O65" s="23"/>
       <c r="P65" s="23"/>
     </row>
@@ -8030,8 +8053,8 @@
       <c r="J66" s="30"/>
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
-      <c r="M66" s="55"/>
-      <c r="N66" s="51"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="23"/>
       <c r="O66" s="23"/>
       <c r="P66" s="23"/>
     </row>
@@ -8044,8 +8067,8 @@
       <c r="J67" s="30"/>
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
-      <c r="M67" s="55"/>
-      <c r="N67" s="51"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="23"/>
       <c r="O67" s="23"/>
       <c r="P67" s="23"/>
     </row>
@@ -8058,8 +8081,8 @@
       <c r="J68" s="30"/>
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
-      <c r="M68" s="55"/>
-      <c r="N68" s="51"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="23"/>
       <c r="O68" s="23"/>
       <c r="P68" s="23"/>
     </row>
@@ -8072,8 +8095,8 @@
       <c r="J69" s="30"/>
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
-      <c r="M69" s="55"/>
-      <c r="N69" s="51"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="23"/>
       <c r="O69" s="23"/>
       <c r="P69" s="23"/>
     </row>
@@ -8086,8 +8109,8 @@
       <c r="J70" s="30"/>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
-      <c r="M70" s="55"/>
-      <c r="N70" s="51"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="23"/>
       <c r="O70" s="23"/>
       <c r="P70" s="23"/>
     </row>
@@ -8100,8 +8123,8 @@
       <c r="J71" s="30"/>
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
-      <c r="M71" s="55"/>
-      <c r="N71" s="51"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="23"/>
       <c r="O71" s="23"/>
       <c r="P71" s="23"/>
     </row>
@@ -8114,8 +8137,8 @@
       <c r="J72" s="30"/>
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
-      <c r="M72" s="55"/>
-      <c r="N72" s="51"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="23"/>
       <c r="O72" s="23"/>
       <c r="P72" s="23"/>
     </row>
@@ -8128,8 +8151,8 @@
       <c r="J73" s="30"/>
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
-      <c r="M73" s="55"/>
-      <c r="N73" s="51"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="23"/>
       <c r="O73" s="23"/>
       <c r="P73" s="23"/>
     </row>
@@ -8142,8 +8165,8 @@
       <c r="J74" s="30"/>
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
-      <c r="M74" s="55"/>
-      <c r="N74" s="51"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="23"/>
       <c r="O74" s="23"/>
       <c r="P74" s="23"/>
     </row>
@@ -8156,8 +8179,8 @@
       <c r="J75" s="30"/>
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
-      <c r="M75" s="55"/>
-      <c r="N75" s="51"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="23"/>
       <c r="O75" s="23"/>
       <c r="P75" s="23"/>
     </row>
@@ -8170,8 +8193,8 @@
       <c r="J76" s="30"/>
       <c r="K76" s="22"/>
       <c r="L76" s="22"/>
-      <c r="M76" s="55"/>
-      <c r="N76" s="51"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="23"/>
       <c r="O76" s="23"/>
       <c r="P76" s="23"/>
     </row>
@@ -8184,8 +8207,8 @@
       <c r="J77" s="30"/>
       <c r="K77" s="22"/>
       <c r="L77" s="22"/>
-      <c r="M77" s="55"/>
-      <c r="N77" s="51"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="23"/>
       <c r="O77" s="23"/>
       <c r="P77" s="23"/>
     </row>
@@ -8198,8 +8221,8 @@
       <c r="J78" s="30"/>
       <c r="K78" s="22"/>
       <c r="L78" s="22"/>
-      <c r="M78" s="55"/>
-      <c r="N78" s="51"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="23"/>
       <c r="O78" s="23"/>
       <c r="P78" s="23"/>
     </row>
@@ -8212,8 +8235,8 @@
       <c r="J79" s="30"/>
       <c r="K79" s="22"/>
       <c r="L79" s="22"/>
-      <c r="M79" s="55"/>
-      <c r="N79" s="51"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="23"/>
       <c r="O79" s="23"/>
       <c r="P79" s="23"/>
     </row>
@@ -8226,8 +8249,8 @@
       <c r="J80" s="30"/>
       <c r="K80" s="22"/>
       <c r="L80" s="22"/>
-      <c r="M80" s="55"/>
-      <c r="N80" s="51"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="23"/>
       <c r="O80" s="23"/>
       <c r="P80" s="23"/>
     </row>
@@ -8240,8 +8263,8 @@
       <c r="J81" s="30"/>
       <c r="K81" s="22"/>
       <c r="L81" s="22"/>
-      <c r="M81" s="55"/>
-      <c r="N81" s="51"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="23"/>
       <c r="O81" s="23"/>
       <c r="P81" s="23"/>
     </row>
@@ -8254,8 +8277,8 @@
       <c r="J82" s="30"/>
       <c r="K82" s="22"/>
       <c r="L82" s="22"/>
-      <c r="M82" s="55"/>
-      <c r="N82" s="51"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="23"/>
       <c r="O82" s="23"/>
       <c r="P82" s="23"/>
     </row>
@@ -8268,8 +8291,8 @@
       <c r="J83" s="30"/>
       <c r="K83" s="22"/>
       <c r="L83" s="22"/>
-      <c r="M83" s="55"/>
-      <c r="N83" s="51"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="23"/>
       <c r="O83" s="23"/>
       <c r="P83" s="23"/>
     </row>
@@ -8282,8 +8305,8 @@
       <c r="J84" s="30"/>
       <c r="K84" s="22"/>
       <c r="L84" s="22"/>
-      <c r="M84" s="55"/>
-      <c r="N84" s="51"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="23"/>
       <c r="O84" s="23"/>
       <c r="P84" s="23"/>
     </row>
@@ -8296,8 +8319,8 @@
       <c r="J85" s="30"/>
       <c r="K85" s="22"/>
       <c r="L85" s="22"/>
-      <c r="M85" s="55"/>
-      <c r="N85" s="51"/>
+      <c r="M85" s="42"/>
+      <c r="N85" s="23"/>
       <c r="O85" s="23"/>
       <c r="P85" s="23"/>
     </row>
@@ -8310,8 +8333,8 @@
       <c r="J86" s="30"/>
       <c r="K86" s="22"/>
       <c r="L86" s="22"/>
-      <c r="M86" s="55"/>
-      <c r="N86" s="51"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="23"/>
       <c r="O86" s="23"/>
       <c r="P86" s="23"/>
     </row>
@@ -8324,8 +8347,8 @@
       <c r="J87" s="30"/>
       <c r="K87" s="22"/>
       <c r="L87" s="22"/>
-      <c r="M87" s="55"/>
-      <c r="N87" s="51"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="23"/>
       <c r="O87" s="23"/>
       <c r="P87" s="23"/>
     </row>
@@ -8338,8 +8361,8 @@
       <c r="J88" s="30"/>
       <c r="K88" s="22"/>
       <c r="L88" s="22"/>
-      <c r="M88" s="55"/>
-      <c r="N88" s="51"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="23"/>
       <c r="O88" s="23"/>
       <c r="P88" s="23"/>
     </row>
@@ -8352,8 +8375,8 @@
       <c r="J89" s="30"/>
       <c r="K89" s="22"/>
       <c r="L89" s="22"/>
-      <c r="M89" s="55"/>
-      <c r="N89" s="51"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="23"/>
       <c r="O89" s="23"/>
       <c r="P89" s="23"/>
     </row>
@@ -8366,8 +8389,8 @@
       <c r="J90" s="30"/>
       <c r="K90" s="22"/>
       <c r="L90" s="22"/>
-      <c r="M90" s="55"/>
-      <c r="N90" s="51"/>
+      <c r="M90" s="42"/>
+      <c r="N90" s="23"/>
       <c r="O90" s="23"/>
       <c r="P90" s="23"/>
     </row>
@@ -8380,8 +8403,8 @@
       <c r="J91" s="30"/>
       <c r="K91" s="22"/>
       <c r="L91" s="22"/>
-      <c r="M91" s="55"/>
-      <c r="N91" s="51"/>
+      <c r="M91" s="42"/>
+      <c r="N91" s="23"/>
       <c r="O91" s="23"/>
       <c r="P91" s="23"/>
     </row>
@@ -8394,8 +8417,8 @@
       <c r="J92" s="30"/>
       <c r="K92" s="22"/>
       <c r="L92" s="22"/>
-      <c r="M92" s="55"/>
-      <c r="N92" s="51"/>
+      <c r="M92" s="42"/>
+      <c r="N92" s="23"/>
       <c r="O92" s="23"/>
       <c r="P92" s="23"/>
     </row>
@@ -8408,8 +8431,8 @@
       <c r="J93" s="30"/>
       <c r="K93" s="22"/>
       <c r="L93" s="22"/>
-      <c r="M93" s="55"/>
-      <c r="N93" s="51"/>
+      <c r="M93" s="42"/>
+      <c r="N93" s="23"/>
       <c r="O93" s="23"/>
       <c r="P93" s="23"/>
     </row>
@@ -8422,8 +8445,8 @@
       <c r="J94" s="30"/>
       <c r="K94" s="22"/>
       <c r="L94" s="22"/>
-      <c r="M94" s="55"/>
-      <c r="N94" s="51"/>
+      <c r="M94" s="42"/>
+      <c r="N94" s="23"/>
       <c r="O94" s="23"/>
       <c r="P94" s="23"/>
     </row>
@@ -8436,8 +8459,8 @@
       <c r="J95" s="30"/>
       <c r="K95" s="22"/>
       <c r="L95" s="22"/>
-      <c r="M95" s="55"/>
-      <c r="N95" s="51"/>
+      <c r="M95" s="42"/>
+      <c r="N95" s="23"/>
       <c r="O95" s="23"/>
       <c r="P95" s="23"/>
     </row>
@@ -8450,8 +8473,8 @@
       <c r="J96" s="30"/>
       <c r="K96" s="22"/>
       <c r="L96" s="22"/>
-      <c r="M96" s="55"/>
-      <c r="N96" s="51"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="23"/>
       <c r="O96" s="23"/>
       <c r="P96" s="23"/>
     </row>
@@ -8464,8 +8487,8 @@
       <c r="J97" s="30"/>
       <c r="K97" s="22"/>
       <c r="L97" s="22"/>
-      <c r="M97" s="55"/>
-      <c r="N97" s="51"/>
+      <c r="M97" s="42"/>
+      <c r="N97" s="23"/>
       <c r="O97" s="23"/>
       <c r="P97" s="23"/>
     </row>
@@ -8478,8 +8501,8 @@
       <c r="J98" s="30"/>
       <c r="K98" s="22"/>
       <c r="L98" s="22"/>
-      <c r="M98" s="55"/>
-      <c r="N98" s="51"/>
+      <c r="M98" s="42"/>
+      <c r="N98" s="23"/>
       <c r="O98" s="23"/>
       <c r="P98" s="23"/>
     </row>
@@ -8492,8 +8515,8 @@
       <c r="J99" s="30"/>
       <c r="K99" s="22"/>
       <c r="L99" s="22"/>
-      <c r="M99" s="55"/>
-      <c r="N99" s="51"/>
+      <c r="M99" s="42"/>
+      <c r="N99" s="23"/>
       <c r="O99" s="23"/>
       <c r="P99" s="23"/>
     </row>
@@ -8506,8 +8529,8 @@
       <c r="J100" s="30"/>
       <c r="K100" s="22"/>
       <c r="L100" s="22"/>
-      <c r="M100" s="55"/>
-      <c r="N100" s="51"/>
+      <c r="M100" s="42"/>
+      <c r="N100" s="23"/>
       <c r="O100" s="23"/>
       <c r="P100" s="23"/>
     </row>
@@ -8520,8 +8543,8 @@
       <c r="J101" s="30"/>
       <c r="K101" s="22"/>
       <c r="L101" s="22"/>
-      <c r="M101" s="55"/>
-      <c r="N101" s="51"/>
+      <c r="M101" s="42"/>
+      <c r="N101" s="23"/>
       <c r="O101" s="23"/>
       <c r="P101" s="23"/>
     </row>
@@ -8534,8 +8557,8 @@
       <c r="J102" s="30"/>
       <c r="K102" s="22"/>
       <c r="L102" s="22"/>
-      <c r="M102" s="55"/>
-      <c r="N102" s="51"/>
+      <c r="M102" s="42"/>
+      <c r="N102" s="23"/>
       <c r="O102" s="23"/>
       <c r="P102" s="23"/>
     </row>
@@ -8548,8 +8571,8 @@
       <c r="J103" s="30"/>
       <c r="K103" s="22"/>
       <c r="L103" s="22"/>
-      <c r="M103" s="55"/>
-      <c r="N103" s="51"/>
+      <c r="M103" s="42"/>
+      <c r="N103" s="23"/>
       <c r="O103" s="23"/>
       <c r="P103" s="23"/>
     </row>
@@ -8562,8 +8585,8 @@
       <c r="J104" s="30"/>
       <c r="K104" s="22"/>
       <c r="L104" s="22"/>
-      <c r="M104" s="55"/>
-      <c r="N104" s="51"/>
+      <c r="M104" s="42"/>
+      <c r="N104" s="23"/>
       <c r="O104" s="23"/>
       <c r="P104" s="23"/>
     </row>
@@ -8576,8 +8599,8 @@
       <c r="J105" s="30"/>
       <c r="K105" s="22"/>
       <c r="L105" s="22"/>
-      <c r="M105" s="55"/>
-      <c r="N105" s="51"/>
+      <c r="M105" s="42"/>
+      <c r="N105" s="23"/>
       <c r="O105" s="23"/>
       <c r="P105" s="23"/>
     </row>
@@ -8590,8 +8613,8 @@
       <c r="J106" s="30"/>
       <c r="K106" s="22"/>
       <c r="L106" s="22"/>
-      <c r="M106" s="55"/>
-      <c r="N106" s="51"/>
+      <c r="M106" s="42"/>
+      <c r="N106" s="23"/>
       <c r="O106" s="23"/>
       <c r="P106" s="23"/>
     </row>
@@ -8604,8 +8627,8 @@
       <c r="J107" s="30"/>
       <c r="K107" s="22"/>
       <c r="L107" s="22"/>
-      <c r="M107" s="55"/>
-      <c r="N107" s="51"/>
+      <c r="M107" s="42"/>
+      <c r="N107" s="23"/>
       <c r="O107" s="23"/>
       <c r="P107" s="23"/>
     </row>
@@ -8618,8 +8641,8 @@
       <c r="J108" s="30"/>
       <c r="K108" s="22"/>
       <c r="L108" s="22"/>
-      <c r="M108" s="55"/>
-      <c r="N108" s="51"/>
+      <c r="M108" s="42"/>
+      <c r="N108" s="23"/>
       <c r="O108" s="23"/>
       <c r="P108" s="23"/>
     </row>
@@ -8632,8 +8655,8 @@
       <c r="J109" s="30"/>
       <c r="K109" s="22"/>
       <c r="L109" s="22"/>
-      <c r="M109" s="55"/>
-      <c r="N109" s="51"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="23"/>
       <c r="O109" s="23"/>
       <c r="P109" s="23"/>
     </row>
@@ -8646,8 +8669,8 @@
       <c r="J110" s="30"/>
       <c r="K110" s="22"/>
       <c r="L110" s="22"/>
-      <c r="M110" s="55"/>
-      <c r="N110" s="51"/>
+      <c r="M110" s="42"/>
+      <c r="N110" s="23"/>
       <c r="O110" s="23"/>
       <c r="P110" s="23"/>
     </row>
@@ -8660,8 +8683,8 @@
       <c r="J111" s="30"/>
       <c r="K111" s="22"/>
       <c r="L111" s="22"/>
-      <c r="M111" s="55"/>
-      <c r="N111" s="51"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="23"/>
       <c r="O111" s="23"/>
       <c r="P111" s="23"/>
     </row>
@@ -8674,8 +8697,8 @@
       <c r="J112" s="30"/>
       <c r="K112" s="22"/>
       <c r="L112" s="22"/>
-      <c r="M112" s="55"/>
-      <c r="N112" s="51"/>
+      <c r="M112" s="42"/>
+      <c r="N112" s="23"/>
       <c r="O112" s="23"/>
       <c r="P112" s="23"/>
     </row>
@@ -8688,8 +8711,8 @@
       <c r="J113" s="30"/>
       <c r="K113" s="22"/>
       <c r="L113" s="22"/>
-      <c r="M113" s="55"/>
-      <c r="N113" s="51"/>
+      <c r="M113" s="42"/>
+      <c r="N113" s="23"/>
       <c r="O113" s="23"/>
       <c r="P113" s="23"/>
     </row>
@@ -8702,8 +8725,8 @@
       <c r="J114" s="30"/>
       <c r="K114" s="22"/>
       <c r="L114" s="22"/>
-      <c r="M114" s="55"/>
-      <c r="N114" s="51"/>
+      <c r="M114" s="42"/>
+      <c r="N114" s="23"/>
       <c r="O114" s="23"/>
       <c r="P114" s="23"/>
     </row>
@@ -8716,8 +8739,8 @@
       <c r="J115" s="30"/>
       <c r="K115" s="22"/>
       <c r="L115" s="22"/>
-      <c r="M115" s="55"/>
-      <c r="N115" s="51"/>
+      <c r="M115" s="42"/>
+      <c r="N115" s="23"/>
       <c r="O115" s="23"/>
       <c r="P115" s="23"/>
     </row>
@@ -8730,8 +8753,8 @@
       <c r="J116" s="30"/>
       <c r="K116" s="22"/>
       <c r="L116" s="22"/>
-      <c r="M116" s="55"/>
-      <c r="N116" s="51"/>
+      <c r="M116" s="42"/>
+      <c r="N116" s="23"/>
       <c r="O116" s="23"/>
       <c r="P116" s="23"/>
     </row>
@@ -8744,8 +8767,8 @@
       <c r="J117" s="30"/>
       <c r="K117" s="22"/>
       <c r="L117" s="22"/>
-      <c r="M117" s="55"/>
-      <c r="N117" s="51"/>
+      <c r="M117" s="42"/>
+      <c r="N117" s="23"/>
       <c r="O117" s="23"/>
       <c r="P117" s="23"/>
     </row>
@@ -8758,8 +8781,8 @@
       <c r="J118" s="30"/>
       <c r="K118" s="22"/>
       <c r="L118" s="22"/>
-      <c r="M118" s="55"/>
-      <c r="N118" s="51"/>
+      <c r="M118" s="42"/>
+      <c r="N118" s="23"/>
       <c r="O118" s="23"/>
       <c r="P118" s="23"/>
     </row>
@@ -8772,8 +8795,8 @@
       <c r="J119" s="30"/>
       <c r="K119" s="22"/>
       <c r="L119" s="22"/>
-      <c r="M119" s="55"/>
-      <c r="N119" s="51"/>
+      <c r="M119" s="42"/>
+      <c r="N119" s="23"/>
       <c r="O119" s="23"/>
       <c r="P119" s="23"/>
     </row>
@@ -8786,8 +8809,8 @@
       <c r="J120" s="30"/>
       <c r="K120" s="22"/>
       <c r="L120" s="22"/>
-      <c r="M120" s="55"/>
-      <c r="N120" s="51"/>
+      <c r="M120" s="42"/>
+      <c r="N120" s="23"/>
       <c r="O120" s="23"/>
       <c r="P120" s="23"/>
     </row>
@@ -8800,8 +8823,8 @@
       <c r="J121" s="30"/>
       <c r="K121" s="22"/>
       <c r="L121" s="22"/>
-      <c r="M121" s="55"/>
-      <c r="N121" s="51"/>
+      <c r="M121" s="42"/>
+      <c r="N121" s="23"/>
       <c r="O121" s="23"/>
       <c r="P121" s="23"/>
     </row>
@@ -8814,8 +8837,8 @@
       <c r="J122" s="30"/>
       <c r="K122" s="22"/>
       <c r="L122" s="22"/>
-      <c r="M122" s="55"/>
-      <c r="N122" s="51"/>
+      <c r="M122" s="42"/>
+      <c r="N122" s="23"/>
       <c r="O122" s="23"/>
       <c r="P122" s="23"/>
     </row>
@@ -8828,8 +8851,8 @@
       <c r="J123" s="30"/>
       <c r="K123" s="22"/>
       <c r="L123" s="22"/>
-      <c r="M123" s="55"/>
-      <c r="N123" s="51"/>
+      <c r="M123" s="42"/>
+      <c r="N123" s="23"/>
       <c r="O123" s="23"/>
       <c r="P123" s="23"/>
     </row>
@@ -8842,8 +8865,8 @@
       <c r="J124" s="30"/>
       <c r="K124" s="22"/>
       <c r="L124" s="22"/>
-      <c r="M124" s="55"/>
-      <c r="N124" s="51"/>
+      <c r="M124" s="42"/>
+      <c r="N124" s="23"/>
       <c r="O124" s="23"/>
       <c r="P124" s="23"/>
     </row>
@@ -8856,8 +8879,8 @@
       <c r="J125" s="30"/>
       <c r="K125" s="22"/>
       <c r="L125" s="22"/>
-      <c r="M125" s="55"/>
-      <c r="N125" s="51"/>
+      <c r="M125" s="42"/>
+      <c r="N125" s="23"/>
       <c r="O125" s="23"/>
       <c r="P125" s="23"/>
     </row>
@@ -8870,8 +8893,8 @@
       <c r="J126" s="30"/>
       <c r="K126" s="22"/>
       <c r="L126" s="22"/>
-      <c r="M126" s="55"/>
-      <c r="N126" s="51"/>
+      <c r="M126" s="42"/>
+      <c r="N126" s="23"/>
       <c r="O126" s="23"/>
       <c r="P126" s="23"/>
     </row>
@@ -8884,8 +8907,8 @@
       <c r="J127" s="30"/>
       <c r="K127" s="22"/>
       <c r="L127" s="22"/>
-      <c r="M127" s="55"/>
-      <c r="N127" s="51"/>
+      <c r="M127" s="42"/>
+      <c r="N127" s="23"/>
       <c r="O127" s="23"/>
       <c r="P127" s="23"/>
     </row>
@@ -8898,8 +8921,8 @@
       <c r="J128" s="30"/>
       <c r="K128" s="22"/>
       <c r="L128" s="22"/>
-      <c r="M128" s="55"/>
-      <c r="N128" s="51"/>
+      <c r="M128" s="42"/>
+      <c r="N128" s="23"/>
       <c r="O128" s="23"/>
       <c r="P128" s="23"/>
     </row>
@@ -8912,8 +8935,8 @@
       <c r="J129" s="30"/>
       <c r="K129" s="22"/>
       <c r="L129" s="22"/>
-      <c r="M129" s="55"/>
-      <c r="N129" s="51"/>
+      <c r="M129" s="42"/>
+      <c r="N129" s="23"/>
       <c r="O129" s="23"/>
       <c r="P129" s="23"/>
     </row>
@@ -8926,8 +8949,8 @@
       <c r="J130" s="30"/>
       <c r="K130" s="22"/>
       <c r="L130" s="22"/>
-      <c r="M130" s="55"/>
-      <c r="N130" s="51"/>
+      <c r="M130" s="42"/>
+      <c r="N130" s="23"/>
       <c r="O130" s="23"/>
       <c r="P130" s="23"/>
     </row>
@@ -8940,8 +8963,8 @@
       <c r="J131" s="30"/>
       <c r="K131" s="22"/>
       <c r="L131" s="22"/>
-      <c r="M131" s="55"/>
-      <c r="N131" s="51"/>
+      <c r="M131" s="42"/>
+      <c r="N131" s="23"/>
       <c r="O131" s="23"/>
       <c r="P131" s="23"/>
     </row>
@@ -8954,8 +8977,8 @@
       <c r="J132" s="30"/>
       <c r="K132" s="22"/>
       <c r="L132" s="22"/>
-      <c r="M132" s="55"/>
-      <c r="N132" s="51"/>
+      <c r="M132" s="42"/>
+      <c r="N132" s="23"/>
       <c r="O132" s="23"/>
       <c r="P132" s="23"/>
     </row>
@@ -8968,8 +8991,8 @@
       <c r="J133" s="30"/>
       <c r="K133" s="22"/>
       <c r="L133" s="22"/>
-      <c r="M133" s="55"/>
-      <c r="N133" s="51"/>
+      <c r="M133" s="42"/>
+      <c r="N133" s="23"/>
       <c r="O133" s="23"/>
       <c r="P133" s="23"/>
     </row>
@@ -8982,8 +9005,8 @@
       <c r="J134" s="30"/>
       <c r="K134" s="22"/>
       <c r="L134" s="22"/>
-      <c r="M134" s="55"/>
-      <c r="N134" s="51"/>
+      <c r="M134" s="42"/>
+      <c r="N134" s="23"/>
       <c r="O134" s="23"/>
       <c r="P134" s="23"/>
     </row>
@@ -8996,8 +9019,8 @@
       <c r="J135" s="30"/>
       <c r="K135" s="22"/>
       <c r="L135" s="22"/>
-      <c r="M135" s="55"/>
-      <c r="N135" s="51"/>
+      <c r="M135" s="42"/>
+      <c r="N135" s="23"/>
       <c r="O135" s="23"/>
       <c r="P135" s="23"/>
     </row>
@@ -9010,8 +9033,8 @@
       <c r="J136" s="30"/>
       <c r="K136" s="22"/>
       <c r="L136" s="22"/>
-      <c r="M136" s="55"/>
-      <c r="N136" s="51"/>
+      <c r="M136" s="42"/>
+      <c r="N136" s="23"/>
       <c r="O136" s="23"/>
       <c r="P136" s="23"/>
     </row>
@@ -9024,8 +9047,8 @@
       <c r="J137" s="30"/>
       <c r="K137" s="22"/>
       <c r="L137" s="22"/>
-      <c r="M137" s="55"/>
-      <c r="N137" s="51"/>
+      <c r="M137" s="42"/>
+      <c r="N137" s="23"/>
       <c r="O137" s="23"/>
       <c r="P137" s="23"/>
     </row>
@@ -9038,8 +9061,8 @@
       <c r="J138" s="30"/>
       <c r="K138" s="22"/>
       <c r="L138" s="22"/>
-      <c r="M138" s="55"/>
-      <c r="N138" s="51"/>
+      <c r="M138" s="42"/>
+      <c r="N138" s="23"/>
       <c r="O138" s="23"/>
       <c r="P138" s="23"/>
     </row>
@@ -9052,8 +9075,8 @@
       <c r="J139" s="30"/>
       <c r="K139" s="22"/>
       <c r="L139" s="22"/>
-      <c r="M139" s="55"/>
-      <c r="N139" s="51"/>
+      <c r="M139" s="42"/>
+      <c r="N139" s="23"/>
       <c r="O139" s="23"/>
       <c r="P139" s="23"/>
     </row>
@@ -9066,8 +9089,8 @@
       <c r="J140" s="30"/>
       <c r="K140" s="22"/>
       <c r="L140" s="22"/>
-      <c r="M140" s="55"/>
-      <c r="N140" s="51"/>
+      <c r="M140" s="42"/>
+      <c r="N140" s="23"/>
       <c r="O140" s="23"/>
       <c r="P140" s="23"/>
     </row>
@@ -9080,8 +9103,8 @@
       <c r="J141" s="30"/>
       <c r="K141" s="22"/>
       <c r="L141" s="22"/>
-      <c r="M141" s="55"/>
-      <c r="N141" s="51"/>
+      <c r="M141" s="42"/>
+      <c r="N141" s="23"/>
       <c r="O141" s="23"/>
       <c r="P141" s="23"/>
     </row>
@@ -9094,8 +9117,8 @@
       <c r="J142" s="30"/>
       <c r="K142" s="22"/>
       <c r="L142" s="22"/>
-      <c r="M142" s="55"/>
-      <c r="N142" s="51"/>
+      <c r="M142" s="42"/>
+      <c r="N142" s="23"/>
       <c r="O142" s="23"/>
       <c r="P142" s="23"/>
     </row>
@@ -9108,8 +9131,8 @@
       <c r="J143" s="30"/>
       <c r="K143" s="22"/>
       <c r="L143" s="22"/>
-      <c r="M143" s="55"/>
-      <c r="N143" s="51"/>
+      <c r="M143" s="42"/>
+      <c r="N143" s="23"/>
       <c r="O143" s="23"/>
       <c r="P143" s="23"/>
     </row>
@@ -9122,8 +9145,8 @@
       <c r="J144" s="30"/>
       <c r="K144" s="22"/>
       <c r="L144" s="22"/>
-      <c r="M144" s="55"/>
-      <c r="N144" s="51"/>
+      <c r="M144" s="42"/>
+      <c r="N144" s="23"/>
       <c r="O144" s="23"/>
       <c r="P144" s="23"/>
     </row>
@@ -9136,8 +9159,8 @@
       <c r="J145" s="30"/>
       <c r="K145" s="22"/>
       <c r="L145" s="22"/>
-      <c r="M145" s="55"/>
-      <c r="N145" s="51"/>
+      <c r="M145" s="42"/>
+      <c r="N145" s="23"/>
       <c r="O145" s="23"/>
       <c r="P145" s="23"/>
     </row>
@@ -9150,8 +9173,8 @@
       <c r="J146" s="30"/>
       <c r="K146" s="22"/>
       <c r="L146" s="22"/>
-      <c r="M146" s="55"/>
-      <c r="N146" s="51"/>
+      <c r="M146" s="42"/>
+      <c r="N146" s="23"/>
       <c r="O146" s="23"/>
       <c r="P146" s="23"/>
     </row>
@@ -9164,8 +9187,8 @@
       <c r="J147" s="30"/>
       <c r="K147" s="22"/>
       <c r="L147" s="22"/>
-      <c r="M147" s="55"/>
-      <c r="N147" s="51"/>
+      <c r="M147" s="42"/>
+      <c r="N147" s="23"/>
       <c r="O147" s="23"/>
       <c r="P147" s="23"/>
     </row>
@@ -9178,8 +9201,8 @@
       <c r="J148" s="30"/>
       <c r="K148" s="22"/>
       <c r="L148" s="22"/>
-      <c r="M148" s="55"/>
-      <c r="N148" s="51"/>
+      <c r="M148" s="42"/>
+      <c r="N148" s="23"/>
       <c r="O148" s="23"/>
       <c r="P148" s="23"/>
     </row>
@@ -9192,8 +9215,8 @@
       <c r="J149" s="30"/>
       <c r="K149" s="22"/>
       <c r="L149" s="22"/>
-      <c r="M149" s="55"/>
-      <c r="N149" s="51"/>
+      <c r="M149" s="42"/>
+      <c r="N149" s="23"/>
       <c r="O149" s="23"/>
       <c r="P149" s="23"/>
     </row>
@@ -9206,8 +9229,8 @@
       <c r="J150" s="30"/>
       <c r="K150" s="22"/>
       <c r="L150" s="22"/>
-      <c r="M150" s="55"/>
-      <c r="N150" s="51"/>
+      <c r="M150" s="42"/>
+      <c r="N150" s="23"/>
       <c r="O150" s="23"/>
       <c r="P150" s="23"/>
     </row>
@@ -9220,8 +9243,8 @@
       <c r="J151" s="30"/>
       <c r="K151" s="22"/>
       <c r="L151" s="22"/>
-      <c r="M151" s="55"/>
-      <c r="N151" s="51"/>
+      <c r="M151" s="42"/>
+      <c r="N151" s="23"/>
       <c r="O151" s="23"/>
       <c r="P151" s="23"/>
     </row>
@@ -9234,8 +9257,8 @@
       <c r="J152" s="30"/>
       <c r="K152" s="22"/>
       <c r="L152" s="22"/>
-      <c r="M152" s="55"/>
-      <c r="N152" s="51"/>
+      <c r="M152" s="42"/>
+      <c r="N152" s="23"/>
       <c r="O152" s="23"/>
       <c r="P152" s="23"/>
     </row>
@@ -9248,8 +9271,8 @@
       <c r="J153" s="30"/>
       <c r="K153" s="22"/>
       <c r="L153" s="22"/>
-      <c r="M153" s="55"/>
-      <c r="N153" s="51"/>
+      <c r="M153" s="42"/>
+      <c r="N153" s="23"/>
       <c r="O153" s="23"/>
       <c r="P153" s="23"/>
     </row>
@@ -9262,8 +9285,8 @@
       <c r="J154" s="30"/>
       <c r="K154" s="22"/>
       <c r="L154" s="22"/>
-      <c r="M154" s="55"/>
-      <c r="N154" s="51"/>
+      <c r="M154" s="42"/>
+      <c r="N154" s="23"/>
       <c r="O154" s="23"/>
       <c r="P154" s="23"/>
     </row>
@@ -9276,8 +9299,8 @@
       <c r="J155" s="30"/>
       <c r="K155" s="22"/>
       <c r="L155" s="22"/>
-      <c r="M155" s="55"/>
-      <c r="N155" s="51"/>
+      <c r="M155" s="42"/>
+      <c r="N155" s="23"/>
       <c r="O155" s="23"/>
       <c r="P155" s="23"/>
     </row>
@@ -9290,8 +9313,8 @@
       <c r="J156" s="30"/>
       <c r="K156" s="22"/>
       <c r="L156" s="22"/>
-      <c r="M156" s="55"/>
-      <c r="N156" s="51"/>
+      <c r="M156" s="42"/>
+      <c r="N156" s="23"/>
       <c r="O156" s="23"/>
       <c r="P156" s="23"/>
     </row>
@@ -9304,8 +9327,8 @@
       <c r="J157" s="30"/>
       <c r="K157" s="22"/>
       <c r="L157" s="22"/>
-      <c r="M157" s="55"/>
-      <c r="N157" s="51"/>
+      <c r="M157" s="42"/>
+      <c r="N157" s="23"/>
       <c r="O157" s="23"/>
       <c r="P157" s="23"/>
     </row>
@@ -9318,8 +9341,8 @@
       <c r="J158" s="30"/>
       <c r="K158" s="22"/>
       <c r="L158" s="22"/>
-      <c r="M158" s="55"/>
-      <c r="N158" s="51"/>
+      <c r="M158" s="42"/>
+      <c r="N158" s="23"/>
       <c r="O158" s="23"/>
       <c r="P158" s="23"/>
     </row>
@@ -9332,8 +9355,8 @@
       <c r="J159" s="30"/>
       <c r="K159" s="22"/>
       <c r="L159" s="22"/>
-      <c r="M159" s="55"/>
-      <c r="N159" s="51"/>
+      <c r="M159" s="42"/>
+      <c r="N159" s="23"/>
       <c r="O159" s="23"/>
       <c r="P159" s="23"/>
     </row>
@@ -9346,8 +9369,8 @@
       <c r="J160" s="30"/>
       <c r="K160" s="22"/>
       <c r="L160" s="22"/>
-      <c r="M160" s="55"/>
-      <c r="N160" s="51"/>
+      <c r="M160" s="42"/>
+      <c r="N160" s="23"/>
       <c r="O160" s="23"/>
       <c r="P160" s="23"/>
     </row>
@@ -9360,8 +9383,8 @@
       <c r="J161" s="30"/>
       <c r="K161" s="22"/>
       <c r="L161" s="22"/>
-      <c r="M161" s="55"/>
-      <c r="N161" s="51"/>
+      <c r="M161" s="42"/>
+      <c r="N161" s="23"/>
       <c r="O161" s="23"/>
       <c r="P161" s="23"/>
     </row>
@@ -9374,8 +9397,8 @@
       <c r="J162" s="30"/>
       <c r="K162" s="22"/>
       <c r="L162" s="22"/>
-      <c r="M162" s="55"/>
-      <c r="N162" s="51"/>
+      <c r="M162" s="42"/>
+      <c r="N162" s="23"/>
       <c r="O162" s="23"/>
       <c r="P162" s="23"/>
     </row>
@@ -9388,8 +9411,8 @@
       <c r="J163" s="30"/>
       <c r="K163" s="22"/>
       <c r="L163" s="22"/>
-      <c r="M163" s="55"/>
-      <c r="N163" s="51"/>
+      <c r="M163" s="42"/>
+      <c r="N163" s="23"/>
       <c r="O163" s="23"/>
       <c r="P163" s="23"/>
     </row>
@@ -9402,8 +9425,8 @@
       <c r="J164" s="30"/>
       <c r="K164" s="22"/>
       <c r="L164" s="22"/>
-      <c r="M164" s="55"/>
-      <c r="N164" s="51"/>
+      <c r="M164" s="42"/>
+      <c r="N164" s="23"/>
       <c r="O164" s="23"/>
       <c r="P164" s="23"/>
     </row>
@@ -9416,8 +9439,8 @@
       <c r="J165" s="30"/>
       <c r="K165" s="22"/>
       <c r="L165" s="22"/>
-      <c r="M165" s="55"/>
-      <c r="N165" s="51"/>
+      <c r="M165" s="42"/>
+      <c r="N165" s="23"/>
       <c r="O165" s="23"/>
       <c r="P165" s="23"/>
     </row>
@@ -9430,8 +9453,8 @@
       <c r="J166" s="30"/>
       <c r="K166" s="22"/>
       <c r="L166" s="22"/>
-      <c r="M166" s="55"/>
-      <c r="N166" s="51"/>
+      <c r="M166" s="42"/>
+      <c r="N166" s="23"/>
       <c r="O166" s="23"/>
       <c r="P166" s="23"/>
     </row>
@@ -9444,8 +9467,8 @@
       <c r="J167" s="30"/>
       <c r="K167" s="22"/>
       <c r="L167" s="22"/>
-      <c r="M167" s="55"/>
-      <c r="N167" s="51"/>
+      <c r="M167" s="42"/>
+      <c r="N167" s="23"/>
       <c r="O167" s="23"/>
       <c r="P167" s="23"/>
     </row>
@@ -9458,8 +9481,8 @@
       <c r="J168" s="30"/>
       <c r="K168" s="22"/>
       <c r="L168" s="22"/>
-      <c r="M168" s="55"/>
-      <c r="N168" s="51"/>
+      <c r="M168" s="42"/>
+      <c r="N168" s="23"/>
       <c r="O168" s="23"/>
       <c r="P168" s="23"/>
     </row>
@@ -9472,8 +9495,8 @@
       <c r="J169" s="30"/>
       <c r="K169" s="22"/>
       <c r="L169" s="22"/>
-      <c r="M169" s="55"/>
-      <c r="N169" s="51"/>
+      <c r="M169" s="42"/>
+      <c r="N169" s="23"/>
       <c r="O169" s="23"/>
       <c r="P169" s="23"/>
     </row>
@@ -9486,8 +9509,8 @@
       <c r="J170" s="30"/>
       <c r="K170" s="22"/>
       <c r="L170" s="22"/>
-      <c r="M170" s="55"/>
-      <c r="N170" s="51"/>
+      <c r="M170" s="42"/>
+      <c r="N170" s="23"/>
       <c r="O170" s="23"/>
       <c r="P170" s="23"/>
     </row>
@@ -9500,8 +9523,8 @@
       <c r="J171" s="30"/>
       <c r="K171" s="22"/>
       <c r="L171" s="22"/>
-      <c r="M171" s="55"/>
-      <c r="N171" s="51"/>
+      <c r="M171" s="42"/>
+      <c r="N171" s="23"/>
       <c r="O171" s="23"/>
       <c r="P171" s="23"/>
     </row>
@@ -9514,8 +9537,8 @@
       <c r="J172" s="30"/>
       <c r="K172" s="22"/>
       <c r="L172" s="22"/>
-      <c r="M172" s="55"/>
-      <c r="N172" s="51"/>
+      <c r="M172" s="42"/>
+      <c r="N172" s="23"/>
       <c r="O172" s="23"/>
       <c r="P172" s="23"/>
     </row>
@@ -9528,8 +9551,8 @@
       <c r="J173" s="30"/>
       <c r="K173" s="22"/>
       <c r="L173" s="22"/>
-      <c r="M173" s="55"/>
-      <c r="N173" s="51"/>
+      <c r="M173" s="42"/>
+      <c r="N173" s="23"/>
       <c r="O173" s="23"/>
       <c r="P173" s="23"/>
     </row>
@@ -9542,8 +9565,8 @@
       <c r="J174" s="30"/>
       <c r="K174" s="22"/>
       <c r="L174" s="22"/>
-      <c r="M174" s="55"/>
-      <c r="N174" s="51"/>
+      <c r="M174" s="42"/>
+      <c r="N174" s="23"/>
       <c r="O174" s="23"/>
       <c r="P174" s="23"/>
     </row>
@@ -9556,8 +9579,8 @@
       <c r="J175" s="30"/>
       <c r="K175" s="22"/>
       <c r="L175" s="22"/>
-      <c r="M175" s="55"/>
-      <c r="N175" s="51"/>
+      <c r="M175" s="42"/>
+      <c r="N175" s="23"/>
       <c r="O175" s="23"/>
       <c r="P175" s="23"/>
     </row>
@@ -9570,8 +9593,8 @@
       <c r="J176" s="30"/>
       <c r="K176" s="22"/>
       <c r="L176" s="22"/>
-      <c r="M176" s="55"/>
-      <c r="N176" s="51"/>
+      <c r="M176" s="42"/>
+      <c r="N176" s="23"/>
       <c r="O176" s="23"/>
       <c r="P176" s="23"/>
     </row>
@@ -9584,8 +9607,8 @@
       <c r="J177" s="30"/>
       <c r="K177" s="22"/>
       <c r="L177" s="22"/>
-      <c r="M177" s="55"/>
-      <c r="N177" s="51"/>
+      <c r="M177" s="42"/>
+      <c r="N177" s="23"/>
       <c r="O177" s="23"/>
       <c r="P177" s="23"/>
     </row>
@@ -9598,8 +9621,8 @@
       <c r="J178" s="30"/>
       <c r="K178" s="22"/>
       <c r="L178" s="22"/>
-      <c r="M178" s="55"/>
-      <c r="N178" s="51"/>
+      <c r="M178" s="42"/>
+      <c r="N178" s="23"/>
       <c r="O178" s="23"/>
       <c r="P178" s="23"/>
     </row>
@@ -9612,8 +9635,8 @@
       <c r="J179" s="30"/>
       <c r="K179" s="22"/>
       <c r="L179" s="22"/>
-      <c r="M179" s="55"/>
-      <c r="N179" s="51"/>
+      <c r="M179" s="42"/>
+      <c r="N179" s="23"/>
       <c r="O179" s="23"/>
       <c r="P179" s="23"/>
     </row>
@@ -9626,8 +9649,8 @@
       <c r="J180" s="30"/>
       <c r="K180" s="22"/>
       <c r="L180" s="22"/>
-      <c r="M180" s="55"/>
-      <c r="N180" s="51"/>
+      <c r="M180" s="42"/>
+      <c r="N180" s="23"/>
       <c r="O180" s="23"/>
       <c r="P180" s="23"/>
     </row>
@@ -9640,8 +9663,8 @@
       <c r="J181" s="30"/>
       <c r="K181" s="22"/>
       <c r="L181" s="22"/>
-      <c r="M181" s="55"/>
-      <c r="N181" s="51"/>
+      <c r="M181" s="42"/>
+      <c r="N181" s="23"/>
       <c r="O181" s="23"/>
       <c r="P181" s="23"/>
     </row>
@@ -9654,8 +9677,8 @@
       <c r="J182" s="30"/>
       <c r="K182" s="22"/>
       <c r="L182" s="22"/>
-      <c r="M182" s="55"/>
-      <c r="N182" s="51"/>
+      <c r="M182" s="42"/>
+      <c r="N182" s="23"/>
       <c r="O182" s="23"/>
       <c r="P182" s="23"/>
     </row>
@@ -9668,8 +9691,8 @@
       <c r="J183" s="30"/>
       <c r="K183" s="22"/>
       <c r="L183" s="22"/>
-      <c r="M183" s="55"/>
-      <c r="N183" s="51"/>
+      <c r="M183" s="42"/>
+      <c r="N183" s="23"/>
       <c r="O183" s="23"/>
       <c r="P183" s="23"/>
     </row>
@@ -9682,8 +9705,8 @@
       <c r="J184" s="30"/>
       <c r="K184" s="22"/>
       <c r="L184" s="22"/>
-      <c r="M184" s="55"/>
-      <c r="N184" s="51"/>
+      <c r="M184" s="42"/>
+      <c r="N184" s="23"/>
       <c r="O184" s="23"/>
       <c r="P184" s="23"/>
     </row>
@@ -9696,8 +9719,8 @@
       <c r="J185" s="30"/>
       <c r="K185" s="22"/>
       <c r="L185" s="22"/>
-      <c r="M185" s="55"/>
-      <c r="N185" s="51"/>
+      <c r="M185" s="42"/>
+      <c r="N185" s="23"/>
       <c r="O185" s="23"/>
       <c r="P185" s="23"/>
     </row>
@@ -9710,8 +9733,8 @@
       <c r="J186" s="30"/>
       <c r="K186" s="22"/>
       <c r="L186" s="22"/>
-      <c r="M186" s="55"/>
-      <c r="N186" s="51"/>
+      <c r="M186" s="42"/>
+      <c r="N186" s="23"/>
       <c r="O186" s="23"/>
       <c r="P186" s="23"/>
     </row>
@@ -9724,8 +9747,8 @@
       <c r="J187" s="30"/>
       <c r="K187" s="22"/>
       <c r="L187" s="22"/>
-      <c r="M187" s="55"/>
-      <c r="N187" s="51"/>
+      <c r="M187" s="42"/>
+      <c r="N187" s="23"/>
       <c r="O187" s="23"/>
       <c r="P187" s="23"/>
     </row>
@@ -9738,8 +9761,8 @@
       <c r="J188" s="30"/>
       <c r="K188" s="22"/>
       <c r="L188" s="22"/>
-      <c r="M188" s="55"/>
-      <c r="N188" s="51"/>
+      <c r="M188" s="42"/>
+      <c r="N188" s="23"/>
       <c r="O188" s="23"/>
       <c r="P188" s="23"/>
     </row>
@@ -9752,8 +9775,8 @@
       <c r="J189" s="30"/>
       <c r="K189" s="22"/>
       <c r="L189" s="22"/>
-      <c r="M189" s="55"/>
-      <c r="N189" s="51"/>
+      <c r="M189" s="42"/>
+      <c r="N189" s="23"/>
       <c r="O189" s="23"/>
       <c r="P189" s="23"/>
     </row>
@@ -9766,8 +9789,8 @@
       <c r="J190" s="30"/>
       <c r="K190" s="22"/>
       <c r="L190" s="22"/>
-      <c r="M190" s="55"/>
-      <c r="N190" s="51"/>
+      <c r="M190" s="42"/>
+      <c r="N190" s="23"/>
       <c r="O190" s="23"/>
       <c r="P190" s="23"/>
     </row>
@@ -9780,8 +9803,8 @@
       <c r="J191" s="30"/>
       <c r="K191" s="22"/>
       <c r="L191" s="22"/>
-      <c r="M191" s="55"/>
-      <c r="N191" s="51"/>
+      <c r="M191" s="42"/>
+      <c r="N191" s="23"/>
       <c r="O191" s="23"/>
       <c r="P191" s="23"/>
     </row>
@@ -9794,8 +9817,8 @@
       <c r="J192" s="30"/>
       <c r="K192" s="22"/>
       <c r="L192" s="22"/>
-      <c r="M192" s="55"/>
-      <c r="N192" s="51"/>
+      <c r="M192" s="42"/>
+      <c r="N192" s="23"/>
       <c r="O192" s="23"/>
       <c r="P192" s="23"/>
     </row>
@@ -9808,8 +9831,8 @@
       <c r="J193" s="30"/>
       <c r="K193" s="22"/>
       <c r="L193" s="22"/>
-      <c r="M193" s="55"/>
-      <c r="N193" s="51"/>
+      <c r="M193" s="42"/>
+      <c r="N193" s="23"/>
       <c r="O193" s="23"/>
       <c r="P193" s="23"/>
     </row>
@@ -9822,8 +9845,8 @@
       <c r="J194" s="30"/>
       <c r="K194" s="22"/>
       <c r="L194" s="22"/>
-      <c r="M194" s="55"/>
-      <c r="N194" s="51"/>
+      <c r="M194" s="42"/>
+      <c r="N194" s="23"/>
       <c r="O194" s="23"/>
       <c r="P194" s="23"/>
     </row>
@@ -9836,8 +9859,8 @@
       <c r="J195" s="30"/>
       <c r="K195" s="22"/>
       <c r="L195" s="22"/>
-      <c r="M195" s="55"/>
-      <c r="N195" s="51"/>
+      <c r="M195" s="42"/>
+      <c r="N195" s="23"/>
       <c r="O195" s="23"/>
       <c r="P195" s="23"/>
     </row>
@@ -9850,8 +9873,8 @@
       <c r="J196" s="30"/>
       <c r="K196" s="22"/>
       <c r="L196" s="22"/>
-      <c r="M196" s="55"/>
-      <c r="N196" s="51"/>
+      <c r="M196" s="42"/>
+      <c r="N196" s="23"/>
       <c r="O196" s="23"/>
       <c r="P196" s="23"/>
     </row>
@@ -9864,8 +9887,8 @@
       <c r="J197" s="30"/>
       <c r="K197" s="22"/>
       <c r="L197" s="22"/>
-      <c r="M197" s="55"/>
-      <c r="N197" s="51"/>
+      <c r="M197" s="42"/>
+      <c r="N197" s="23"/>
       <c r="O197" s="23"/>
       <c r="P197" s="23"/>
     </row>
@@ -9878,8 +9901,8 @@
       <c r="J198" s="30"/>
       <c r="K198" s="22"/>
       <c r="L198" s="22"/>
-      <c r="M198" s="55"/>
-      <c r="N198" s="51"/>
+      <c r="M198" s="42"/>
+      <c r="N198" s="23"/>
       <c r="O198" s="23"/>
       <c r="P198" s="23"/>
     </row>
@@ -9892,8 +9915,8 @@
       <c r="J199" s="30"/>
       <c r="K199" s="22"/>
       <c r="L199" s="22"/>
-      <c r="M199" s="55"/>
-      <c r="N199" s="51"/>
+      <c r="M199" s="42"/>
+      <c r="N199" s="23"/>
       <c r="O199" s="23"/>
       <c r="P199" s="23"/>
     </row>
@@ -9906,8 +9929,8 @@
       <c r="J200" s="30"/>
       <c r="K200" s="22"/>
       <c r="L200" s="22"/>
-      <c r="M200" s="55"/>
-      <c r="N200" s="51"/>
+      <c r="M200" s="42"/>
+      <c r="N200" s="23"/>
       <c r="O200" s="23"/>
       <c r="P200" s="23"/>
     </row>
@@ -9920,8 +9943,8 @@
       <c r="J201" s="30"/>
       <c r="K201" s="22"/>
       <c r="L201" s="22"/>
-      <c r="M201" s="55"/>
-      <c r="N201" s="51"/>
+      <c r="M201" s="42"/>
+      <c r="N201" s="23"/>
       <c r="O201" s="23"/>
       <c r="P201" s="23"/>
     </row>
@@ -9934,8 +9957,8 @@
       <c r="J202" s="30"/>
       <c r="K202" s="22"/>
       <c r="L202" s="22"/>
-      <c r="M202" s="55"/>
-      <c r="N202" s="51"/>
+      <c r="M202" s="42"/>
+      <c r="N202" s="23"/>
       <c r="O202" s="23"/>
       <c r="P202" s="23"/>
     </row>
@@ -9948,8 +9971,8 @@
       <c r="J203" s="30"/>
       <c r="K203" s="22"/>
       <c r="L203" s="22"/>
-      <c r="M203" s="55"/>
-      <c r="N203" s="51"/>
+      <c r="M203" s="42"/>
+      <c r="N203" s="23"/>
       <c r="O203" s="23"/>
       <c r="P203" s="23"/>
     </row>
@@ -9962,8 +9985,8 @@
       <c r="J204" s="30"/>
       <c r="K204" s="22"/>
       <c r="L204" s="22"/>
-      <c r="M204" s="55"/>
-      <c r="N204" s="51"/>
+      <c r="M204" s="42"/>
+      <c r="N204" s="23"/>
       <c r="O204" s="23"/>
       <c r="P204" s="23"/>
     </row>
@@ -9976,8 +9999,8 @@
       <c r="J205" s="30"/>
       <c r="K205" s="22"/>
       <c r="L205" s="22"/>
-      <c r="M205" s="55"/>
-      <c r="N205" s="51"/>
+      <c r="M205" s="42"/>
+      <c r="N205" s="23"/>
       <c r="O205" s="23"/>
       <c r="P205" s="23"/>
     </row>
@@ -9990,8 +10013,8 @@
       <c r="J206" s="30"/>
       <c r="K206" s="22"/>
       <c r="L206" s="22"/>
-      <c r="M206" s="55"/>
-      <c r="N206" s="51"/>
+      <c r="M206" s="42"/>
+      <c r="N206" s="23"/>
       <c r="O206" s="23"/>
       <c r="P206" s="23"/>
     </row>
@@ -10004,8 +10027,8 @@
       <c r="J207" s="30"/>
       <c r="K207" s="22"/>
       <c r="L207" s="22"/>
-      <c r="M207" s="55"/>
-      <c r="N207" s="51"/>
+      <c r="M207" s="42"/>
+      <c r="N207" s="23"/>
       <c r="O207" s="23"/>
       <c r="P207" s="23"/>
     </row>
@@ -10018,8 +10041,8 @@
       <c r="J208" s="30"/>
       <c r="K208" s="22"/>
       <c r="L208" s="22"/>
-      <c r="M208" s="55"/>
-      <c r="N208" s="51"/>
+      <c r="M208" s="42"/>
+      <c r="N208" s="23"/>
       <c r="O208" s="23"/>
       <c r="P208" s="23"/>
     </row>
@@ -10032,8 +10055,8 @@
       <c r="J209" s="30"/>
       <c r="K209" s="22"/>
       <c r="L209" s="22"/>
-      <c r="M209" s="55"/>
-      <c r="N209" s="51"/>
+      <c r="M209" s="42"/>
+      <c r="N209" s="23"/>
       <c r="O209" s="23"/>
       <c r="P209" s="23"/>
     </row>
@@ -10046,8 +10069,8 @@
       <c r="J210" s="30"/>
       <c r="K210" s="22"/>
       <c r="L210" s="22"/>
-      <c r="M210" s="55"/>
-      <c r="N210" s="51"/>
+      <c r="M210" s="42"/>
+      <c r="N210" s="23"/>
       <c r="O210" s="23"/>
       <c r="P210" s="23"/>
     </row>
@@ -10060,8 +10083,8 @@
       <c r="J211" s="30"/>
       <c r="K211" s="22"/>
       <c r="L211" s="22"/>
-      <c r="M211" s="55"/>
-      <c r="N211" s="51"/>
+      <c r="M211" s="42"/>
+      <c r="N211" s="23"/>
       <c r="O211" s="23"/>
       <c r="P211" s="23"/>
     </row>
@@ -10074,8 +10097,8 @@
       <c r="J212" s="30"/>
       <c r="K212" s="22"/>
       <c r="L212" s="22"/>
-      <c r="M212" s="55"/>
-      <c r="N212" s="51"/>
+      <c r="M212" s="42"/>
+      <c r="N212" s="23"/>
       <c r="O212" s="23"/>
       <c r="P212" s="23"/>
     </row>
@@ -10088,8 +10111,8 @@
       <c r="J213" s="30"/>
       <c r="K213" s="22"/>
       <c r="L213" s="22"/>
-      <c r="M213" s="55"/>
-      <c r="N213" s="51"/>
+      <c r="M213" s="42"/>
+      <c r="N213" s="23"/>
       <c r="O213" s="23"/>
       <c r="P213" s="23"/>
     </row>
@@ -10102,8 +10125,8 @@
       <c r="J214" s="30"/>
       <c r="K214" s="22"/>
       <c r="L214" s="22"/>
-      <c r="M214" s="55"/>
-      <c r="N214" s="51"/>
+      <c r="M214" s="42"/>
+      <c r="N214" s="23"/>
       <c r="O214" s="23"/>
       <c r="P214" s="23"/>
     </row>
@@ -10116,8 +10139,8 @@
       <c r="J215" s="30"/>
       <c r="K215" s="22"/>
       <c r="L215" s="22"/>
-      <c r="M215" s="55"/>
-      <c r="N215" s="51"/>
+      <c r="M215" s="42"/>
+      <c r="N215" s="23"/>
       <c r="O215" s="23"/>
       <c r="P215" s="23"/>
     </row>
@@ -10130,8 +10153,8 @@
       <c r="J216" s="30"/>
       <c r="K216" s="22"/>
       <c r="L216" s="22"/>
-      <c r="M216" s="55"/>
-      <c r="N216" s="51"/>
+      <c r="M216" s="42"/>
+      <c r="N216" s="23"/>
       <c r="O216" s="23"/>
       <c r="P216" s="23"/>
     </row>
@@ -10144,8 +10167,8 @@
       <c r="J217" s="30"/>
       <c r="K217" s="22"/>
       <c r="L217" s="22"/>
-      <c r="M217" s="55"/>
-      <c r="N217" s="51"/>
+      <c r="M217" s="42"/>
+      <c r="N217" s="23"/>
       <c r="O217" s="23"/>
       <c r="P217" s="23"/>
     </row>
@@ -10158,8 +10181,8 @@
       <c r="J218" s="30"/>
       <c r="K218" s="22"/>
       <c r="L218" s="22"/>
-      <c r="M218" s="55"/>
-      <c r="N218" s="51"/>
+      <c r="M218" s="42"/>
+      <c r="N218" s="23"/>
       <c r="O218" s="23"/>
       <c r="P218" s="23"/>
     </row>
@@ -10172,8 +10195,8 @@
       <c r="J219" s="30"/>
       <c r="K219" s="22"/>
       <c r="L219" s="22"/>
-      <c r="M219" s="55"/>
-      <c r="N219" s="51"/>
+      <c r="M219" s="42"/>
+      <c r="N219" s="23"/>
       <c r="O219" s="23"/>
       <c r="P219" s="23"/>
     </row>
@@ -10186,8 +10209,8 @@
       <c r="J220" s="30"/>
       <c r="K220" s="22"/>
       <c r="L220" s="22"/>
-      <c r="M220" s="55"/>
-      <c r="N220" s="51"/>
+      <c r="M220" s="42"/>
+      <c r="N220" s="23"/>
       <c r="O220" s="23"/>
       <c r="P220" s="23"/>
     </row>
@@ -10200,8 +10223,8 @@
       <c r="J221" s="30"/>
       <c r="K221" s="22"/>
       <c r="L221" s="22"/>
-      <c r="M221" s="55"/>
-      <c r="N221" s="51"/>
+      <c r="M221" s="42"/>
+      <c r="N221" s="23"/>
       <c r="O221" s="23"/>
       <c r="P221" s="23"/>
     </row>
@@ -10214,8 +10237,8 @@
       <c r="J222" s="30"/>
       <c r="K222" s="22"/>
       <c r="L222" s="22"/>
-      <c r="M222" s="55"/>
-      <c r="N222" s="51"/>
+      <c r="M222" s="42"/>
+      <c r="N222" s="23"/>
       <c r="O222" s="23"/>
       <c r="P222" s="23"/>
     </row>
@@ -10228,8 +10251,8 @@
       <c r="J223" s="30"/>
       <c r="K223" s="22"/>
       <c r="L223" s="22"/>
-      <c r="M223" s="55"/>
-      <c r="N223" s="51"/>
+      <c r="M223" s="42"/>
+      <c r="N223" s="23"/>
       <c r="O223" s="23"/>
       <c r="P223" s="23"/>
     </row>
@@ -10242,8 +10265,8 @@
       <c r="J224" s="30"/>
       <c r="K224" s="22"/>
       <c r="L224" s="22"/>
-      <c r="M224" s="55"/>
-      <c r="N224" s="51"/>
+      <c r="M224" s="42"/>
+      <c r="N224" s="23"/>
       <c r="O224" s="23"/>
       <c r="P224" s="23"/>
     </row>
@@ -10256,8 +10279,8 @@
       <c r="J225" s="30"/>
       <c r="K225" s="22"/>
       <c r="L225" s="22"/>
-      <c r="M225" s="55"/>
-      <c r="N225" s="51"/>
+      <c r="M225" s="42"/>
+      <c r="N225" s="23"/>
       <c r="O225" s="23"/>
       <c r="P225" s="23"/>
     </row>
@@ -10270,8 +10293,8 @@
       <c r="J226" s="30"/>
       <c r="K226" s="22"/>
       <c r="L226" s="22"/>
-      <c r="M226" s="55"/>
-      <c r="N226" s="51"/>
+      <c r="M226" s="42"/>
+      <c r="N226" s="23"/>
       <c r="O226" s="23"/>
       <c r="P226" s="23"/>
     </row>
@@ -10284,8 +10307,8 @@
       <c r="J227" s="30"/>
       <c r="K227" s="22"/>
       <c r="L227" s="22"/>
-      <c r="M227" s="55"/>
-      <c r="N227" s="51"/>
+      <c r="M227" s="42"/>
+      <c r="N227" s="23"/>
       <c r="O227" s="23"/>
       <c r="P227" s="23"/>
     </row>
@@ -10298,8 +10321,8 @@
       <c r="J228" s="30"/>
       <c r="K228" s="22"/>
       <c r="L228" s="22"/>
-      <c r="M228" s="55"/>
-      <c r="N228" s="51"/>
+      <c r="M228" s="42"/>
+      <c r="N228" s="23"/>
       <c r="O228" s="23"/>
       <c r="P228" s="23"/>
     </row>
@@ -10312,8 +10335,8 @@
       <c r="J229" s="30"/>
       <c r="K229" s="22"/>
       <c r="L229" s="22"/>
-      <c r="M229" s="55"/>
-      <c r="N229" s="51"/>
+      <c r="M229" s="42"/>
+      <c r="N229" s="23"/>
       <c r="O229" s="23"/>
       <c r="P229" s="23"/>
     </row>
@@ -10326,8 +10349,8 @@
       <c r="J230" s="30"/>
       <c r="K230" s="22"/>
       <c r="L230" s="22"/>
-      <c r="M230" s="55"/>
-      <c r="N230" s="51"/>
+      <c r="M230" s="42"/>
+      <c r="N230" s="23"/>
       <c r="O230" s="23"/>
       <c r="P230" s="23"/>
     </row>
@@ -10340,8 +10363,8 @@
       <c r="J231" s="30"/>
       <c r="K231" s="22"/>
       <c r="L231" s="22"/>
-      <c r="M231" s="55"/>
-      <c r="N231" s="51"/>
+      <c r="M231" s="42"/>
+      <c r="N231" s="23"/>
       <c r="O231" s="23"/>
       <c r="P231" s="23"/>
     </row>
@@ -10354,8 +10377,8 @@
       <c r="J232" s="30"/>
       <c r="K232" s="22"/>
       <c r="L232" s="22"/>
-      <c r="M232" s="55"/>
-      <c r="N232" s="51"/>
+      <c r="M232" s="42"/>
+      <c r="N232" s="23"/>
       <c r="O232" s="23"/>
       <c r="P232" s="23"/>
     </row>
@@ -10368,8 +10391,8 @@
       <c r="J233" s="30"/>
       <c r="K233" s="22"/>
       <c r="L233" s="22"/>
-      <c r="M233" s="55"/>
-      <c r="N233" s="51"/>
+      <c r="M233" s="42"/>
+      <c r="N233" s="23"/>
       <c r="O233" s="23"/>
       <c r="P233" s="23"/>
     </row>
@@ -10382,8 +10405,8 @@
       <c r="J234" s="30"/>
       <c r="K234" s="22"/>
       <c r="L234" s="22"/>
-      <c r="M234" s="55"/>
-      <c r="N234" s="51"/>
+      <c r="M234" s="42"/>
+      <c r="N234" s="23"/>
       <c r="O234" s="23"/>
       <c r="P234" s="23"/>
     </row>
@@ -10396,8 +10419,8 @@
       <c r="J235" s="30"/>
       <c r="K235" s="22"/>
       <c r="L235" s="22"/>
-      <c r="M235" s="55"/>
-      <c r="N235" s="51"/>
+      <c r="M235" s="42"/>
+      <c r="N235" s="23"/>
       <c r="O235" s="23"/>
       <c r="P235" s="23"/>
     </row>
@@ -10410,8 +10433,8 @@
       <c r="J236" s="30"/>
       <c r="K236" s="22"/>
       <c r="L236" s="22"/>
-      <c r="M236" s="55"/>
-      <c r="N236" s="51"/>
+      <c r="M236" s="42"/>
+      <c r="N236" s="23"/>
       <c r="O236" s="23"/>
       <c r="P236" s="23"/>
     </row>
@@ -10424,8 +10447,8 @@
       <c r="J237" s="30"/>
       <c r="K237" s="22"/>
       <c r="L237" s="22"/>
-      <c r="M237" s="55"/>
-      <c r="N237" s="51"/>
+      <c r="M237" s="42"/>
+      <c r="N237" s="23"/>
       <c r="O237" s="23"/>
       <c r="P237" s="23"/>
     </row>
@@ -10438,8 +10461,8 @@
       <c r="J238" s="30"/>
       <c r="K238" s="22"/>
       <c r="L238" s="22"/>
-      <c r="M238" s="55"/>
-      <c r="N238" s="51"/>
+      <c r="M238" s="42"/>
+      <c r="N238" s="23"/>
       <c r="O238" s="23"/>
       <c r="P238" s="23"/>
     </row>
@@ -10452,8 +10475,8 @@
       <c r="J239" s="30"/>
       <c r="K239" s="22"/>
       <c r="L239" s="22"/>
-      <c r="M239" s="55"/>
-      <c r="N239" s="51"/>
+      <c r="M239" s="42"/>
+      <c r="N239" s="23"/>
       <c r="O239" s="23"/>
       <c r="P239" s="23"/>
     </row>
@@ -10466,8 +10489,8 @@
       <c r="J240" s="30"/>
       <c r="K240" s="22"/>
       <c r="L240" s="22"/>
-      <c r="M240" s="55"/>
-      <c r="N240" s="51"/>
+      <c r="M240" s="42"/>
+      <c r="N240" s="23"/>
       <c r="O240" s="23"/>
       <c r="P240" s="23"/>
     </row>
@@ -10480,8 +10503,8 @@
       <c r="J241" s="30"/>
       <c r="K241" s="22"/>
       <c r="L241" s="22"/>
-      <c r="M241" s="55"/>
-      <c r="N241" s="51"/>
+      <c r="M241" s="42"/>
+      <c r="N241" s="23"/>
       <c r="O241" s="23"/>
       <c r="P241" s="23"/>
     </row>
@@ -10494,8 +10517,8 @@
       <c r="J242" s="30"/>
       <c r="K242" s="22"/>
       <c r="L242" s="22"/>
-      <c r="M242" s="55"/>
-      <c r="N242" s="51"/>
+      <c r="M242" s="42"/>
+      <c r="N242" s="23"/>
       <c r="O242" s="23"/>
       <c r="P242" s="23"/>
     </row>
@@ -10508,8 +10531,8 @@
       <c r="J243" s="30"/>
       <c r="K243" s="22"/>
       <c r="L243" s="22"/>
-      <c r="M243" s="55"/>
-      <c r="N243" s="51"/>
+      <c r="M243" s="42"/>
+      <c r="N243" s="23"/>
       <c r="O243" s="23"/>
       <c r="P243" s="23"/>
     </row>
@@ -10522,8 +10545,8 @@
       <c r="J244" s="30"/>
       <c r="K244" s="22"/>
       <c r="L244" s="22"/>
-      <c r="M244" s="55"/>
-      <c r="N244" s="51"/>
+      <c r="M244" s="42"/>
+      <c r="N244" s="23"/>
       <c r="O244" s="23"/>
       <c r="P244" s="23"/>
     </row>
@@ -10536,8 +10559,8 @@
       <c r="J245" s="30"/>
       <c r="K245" s="22"/>
       <c r="L245" s="22"/>
-      <c r="M245" s="55"/>
-      <c r="N245" s="51"/>
+      <c r="M245" s="42"/>
+      <c r="N245" s="23"/>
       <c r="O245" s="23"/>
       <c r="P245" s="23"/>
     </row>
@@ -10573,25 +10596,25 @@
         <v>14</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>103</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I1" s="28" t="s">
         <v>26</v>
@@ -10600,7 +10623,7 @@
         <v>200</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L1" s="36" t="s">
         <v>20</v>
@@ -10860,23 +10883,23 @@
         <v>15</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>97</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>104</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>26</v>
@@ -10885,16 +10908,16 @@
         <v>200</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L2" s="36" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N2" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O2" s="36"/>
       <c r="P2" s="37"/>
@@ -11147,25 +11170,25 @@
         <v>16</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>99</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>106</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>26</v>
@@ -11174,16 +11197,16 @@
         <v>200</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L3" s="36" t="s">
         <v>20</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" s="36"/>
       <c r="P3" s="37"/>
@@ -11436,28 +11459,28 @@
         <v>17</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J4" s="35">
         <v>200</v>
@@ -11467,10 +11490,10 @@
         <v>20</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N4" s="37" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O4" s="37"/>
       <c r="P4" s="13"/>
@@ -11722,28 +11745,28 @@
         <v>18</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J5" s="35">
         <v>200</v>
@@ -12004,28 +12027,28 @@
         <v>19</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J6" s="35">
         <v>200</v>
@@ -12035,10 +12058,10 @@
         <v>20</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N6" s="37" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O6" s="37"/>
       <c r="P6" s="13"/>
@@ -12339,35 +12362,35 @@
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7"/>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="1:5" ht="14">
-      <c r="A7" s="46"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -12382,46 +12405,46 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="46"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="46"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="46"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="47"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="1:5" ht="14">
-      <c r="A13" s="46"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -12436,28 +12459,28 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="46"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="46"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="46"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="47"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>

--- a/data/allocation/allocation_data.xlsx
+++ b/data/allocation/allocation_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/allocation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EF3159-0B81-EA4B-B45F-D1326C715CFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579E49B6-15F8-D043-95BF-04EADC74AE98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="130">
   <si>
     <t>V1.0</t>
   </si>
@@ -1772,9 +1772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IY245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -3742,8 +3742,12 @@
       <c r="L9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="56"/>
+      <c r="M9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="56" t="s">
+        <v>129</v>
+      </c>
       <c r="O9" s="36"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="13"/>
@@ -3990,7 +3994,7 @@
       <c r="IX9" s="15"/>
       <c r="IY9" s="15"/>
     </row>
-    <row r="10" spans="1:259" s="12" customFormat="1" ht="102" customHeight="1" thickBot="1">
+    <row r="10" spans="1:259" s="12" customFormat="1" ht="121" customHeight="1" thickBot="1">
       <c r="A10" s="24">
         <v>8</v>
       </c>
@@ -5748,7 +5752,7 @@
       <c r="L16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="36"/>
+      <c r="M16" s="25"/>
       <c r="N16" s="55"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37" t="s">
